--- a/std/antibiotics.xlsx
+++ b/std/antibiotics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullahalmohamad/Desktop/MSF/18-Automation/09-AB_consumption (1)/std/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullahalmohamad/Desktop/AB_consumption_analysis/std/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B59B89-C610-8943-91B3-A78FA9783DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83558748-FE2D-9B42-94E2-678DB2900A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="500" windowWidth="34480" windowHeight="19340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5966" uniqueCount="2595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5966" uniqueCount="2594">
   <si>
     <t>ab</t>
   </si>
@@ -7700,33 +7700,18 @@
     <t>ATC-3</t>
   </si>
   <si>
-    <t>beta-lactam antibacterials, penicillins</t>
-  </si>
-  <si>
     <t>cephalosporins</t>
   </si>
   <si>
     <t>aminoglycoside antibacterials</t>
   </si>
   <si>
-    <t>other analgesics and antipyretics</t>
-  </si>
-  <si>
-    <t>macrolides, lincosamides and streptogramins</t>
-  </si>
-  <si>
     <t>quinolone antibacterials</t>
   </si>
   <si>
     <t>tetracyclines</t>
   </si>
   <si>
-    <t>antiinflammatory and antirheumatic products, non-steroids</t>
-  </si>
-  <si>
-    <t>agents against amoebiasis and other protozoal diseases</t>
-  </si>
-  <si>
     <t>other antibacterials</t>
   </si>
   <si>
@@ -7827,6 +7812,18 @@
   </si>
   <si>
     <t>not_AB</t>
+  </si>
+  <si>
+    <t>agents against amoebiasis</t>
+  </si>
+  <si>
+    <t>antiinflammatory non-steroids</t>
+  </si>
+  <si>
+    <t>penicillins</t>
+  </si>
+  <si>
+    <t>antipyretics</t>
   </si>
 </sst>
 </file>
@@ -12428,8 +12425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA51841-03F0-47E2-8829-0B7F66C12DE2}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -12456,7 +12453,7 @@
         <v>2495</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>2583</v>
+        <v>2578</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>2539</v>
@@ -12471,37 +12468,37 @@
         <v>2551</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>2562</v>
+        <v>2557</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>2577</v>
+        <v>2572</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>2210</v>
       </c>
       <c r="K1" s="14" t="s">
+        <v>2581</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>2586</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>2591</v>
-      </c>
       <c r="M1" s="14" t="s">
-        <v>2592</v>
+        <v>2587</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>2593</v>
+        <v>2588</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>2587</v>
+        <v>2582</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>2588</v>
+        <v>2583</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>2589</v>
+        <v>2584</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>2590</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -12524,10 +12521,10 @@
         <v>2145</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>2552</v>
+        <v>2592</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>2563</v>
+        <v>2558</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>2150</v>
@@ -12536,7 +12533,7 @@
         <v>2151</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L2" s="6" t="b">
         <v>0</v>
@@ -12581,10 +12578,10 @@
         <v>2145</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>2552</v>
+        <v>2592</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>2563</v>
+        <v>2558</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>2150</v>
@@ -12593,7 +12590,7 @@
         <v>2151</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L3" s="6" t="b">
         <v>1</v>
@@ -12638,10 +12635,10 @@
         <v>2145</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>2564</v>
+        <v>2559</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>301</v>
@@ -12650,7 +12647,7 @@
         <v>300</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L4" s="6" t="b">
         <v>0</v>
@@ -12694,10 +12691,10 @@
         <v>2145</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>2565</v>
+        <v>2560</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>418</v>
@@ -12706,7 +12703,7 @@
         <v>417</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="L5" s="6" t="b">
         <v>1</v>
@@ -12751,10 +12748,10 @@
         <v>2145</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>2565</v>
+        <v>2560</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>565</v>
@@ -12763,7 +12760,7 @@
         <v>564</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="L6" s="6" t="b">
         <v>0</v>
@@ -12808,10 +12805,10 @@
         <v>2145</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>2565</v>
+        <v>2560</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>565</v>
@@ -12820,7 +12817,7 @@
         <v>564</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="L7" s="6" t="b">
         <v>1</v>
@@ -12865,10 +12862,10 @@
         <v>2145</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>2552</v>
+        <v>2592</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>2566</v>
+        <v>2561</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>685</v>
@@ -12877,7 +12874,7 @@
         <v>2158</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L8" s="6" t="b">
         <v>1</v>
@@ -12922,10 +12919,10 @@
         <v>2145</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>2567</v>
+        <v>2562</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>2180</v>
@@ -12934,7 +12931,7 @@
         <v>2181</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L9" s="6" t="b">
         <v>0</v>
@@ -12979,10 +12976,10 @@
         <v>2145</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>2561</v>
+        <v>2556</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>2568</v>
+        <v>2563</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>2203</v>
@@ -12991,7 +12988,7 @@
         <v>1164</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L10" s="6" t="b">
         <v>0</v>
@@ -13036,19 +13033,19 @@
         <v>2145</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>2555</v>
+        <v>2593</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>2569</v>
+        <v>2564</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>2578</v>
+        <v>2573</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>2579</v>
+        <v>2574</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>2594</v>
+        <v>2589</v>
       </c>
       <c r="L11" s="6" t="b">
         <v>1</v>
@@ -13093,10 +13090,10 @@
         <v>2145</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>2552</v>
+        <v>2592</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>2570</v>
+        <v>2565</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>179</v>
@@ -13105,7 +13102,7 @@
         <v>178</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L12" s="6" t="b">
         <v>0</v>
@@ -13150,10 +13147,10 @@
         <v>2141</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>2552</v>
+        <v>2592</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>2571</v>
+        <v>2566</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>58</v>
@@ -13162,7 +13159,7 @@
         <v>2160</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L13" s="6" t="b">
         <v>0</v>
@@ -13206,10 +13203,10 @@
         <v>2141</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>2552</v>
+        <v>2592</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>2571</v>
+        <v>2566</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>58</v>
@@ -13218,7 +13215,7 @@
         <v>2160</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L14" s="6" t="b">
         <v>0</v>
@@ -13262,10 +13259,10 @@
         <v>2141</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>2552</v>
+        <v>2592</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>2571</v>
+        <v>2566</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>58</v>
@@ -13274,7 +13271,7 @@
         <v>2160</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L15" s="6" t="b">
         <v>0</v>
@@ -13319,10 +13316,10 @@
         <v>2141</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>2552</v>
+        <v>2592</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>2571</v>
+        <v>2566</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>58</v>
@@ -13331,7 +13328,7 @@
         <v>2160</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L16" s="6" t="b">
         <v>0</v>
@@ -13376,10 +13373,10 @@
         <v>2141</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>2552</v>
+        <v>2592</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>2563</v>
+        <v>2558</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>50</v>
@@ -13388,7 +13385,7 @@
         <v>2153</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L17" s="6" t="b">
         <v>0</v>
@@ -13432,10 +13429,10 @@
         <v>2141</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>2552</v>
+        <v>2592</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>2563</v>
+        <v>2558</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>50</v>
@@ -13444,7 +13441,7 @@
         <v>2153</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L18" s="6" t="b">
         <v>0</v>
@@ -13488,10 +13485,10 @@
         <v>2141</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>2552</v>
+        <v>2592</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>2563</v>
+        <v>2558</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>50</v>
@@ -13500,7 +13497,7 @@
         <v>2153</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L19" s="6" t="b">
         <v>0</v>
@@ -13545,10 +13542,10 @@
         <v>2141</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>2556</v>
+        <v>2567</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>2572</v>
+        <v>2567</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>2171</v>
@@ -13557,7 +13554,7 @@
         <v>2172</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="L20" s="6" t="b">
         <v>0</v>
@@ -13602,10 +13599,10 @@
         <v>2141</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>2556</v>
+        <v>2567</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>2572</v>
+        <v>2567</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>2171</v>
@@ -13614,7 +13611,7 @@
         <v>2172</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="L21" s="6" t="b">
         <v>0</v>
@@ -13658,10 +13655,10 @@
         <v>2141</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>2556</v>
+        <v>2567</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>2572</v>
+        <v>2567</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>2171</v>
@@ -13670,7 +13667,7 @@
         <v>2172</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="L22" s="6" t="b">
         <v>0</v>
@@ -13715,10 +13712,10 @@
         <v>2141</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>2565</v>
+        <v>2560</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>372</v>
@@ -13727,7 +13724,7 @@
         <v>371</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="L23" s="6" t="b">
         <v>0</v>
@@ -13771,10 +13768,10 @@
         <v>2141</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>2565</v>
+        <v>2560</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>372</v>
@@ -13783,7 +13780,7 @@
         <v>371</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="L24" s="6" t="b">
         <v>0</v>
@@ -13828,10 +13825,10 @@
         <v>2141</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>2564</v>
+        <v>2559</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>268</v>
@@ -13840,7 +13837,7 @@
         <v>267</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L25" s="6" t="b">
         <v>0</v>
@@ -13885,10 +13882,10 @@
         <v>2141</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>2573</v>
+        <v>2568</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>2187</v>
@@ -13897,7 +13894,7 @@
         <v>2188</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="L26" s="6" t="b">
         <v>0</v>
@@ -13942,10 +13939,10 @@
         <v>2141</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>2573</v>
+        <v>2568</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>2187</v>
@@ -13954,7 +13951,7 @@
         <v>2188</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="L27" s="6" t="b">
         <v>0</v>
@@ -13999,10 +13996,10 @@
         <v>2141</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>2552</v>
+        <v>2592</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>2566</v>
+        <v>2561</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>685</v>
@@ -14011,7 +14008,7 @@
         <v>2158</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L28" s="6" t="b">
         <v>0</v>
@@ -14056,10 +14053,10 @@
         <v>2141</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>2140</v>
@@ -14068,7 +14065,7 @@
         <v>2142</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L29" s="6" t="b">
         <v>0</v>
@@ -14113,10 +14110,10 @@
         <v>2141</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>2556</v>
+        <v>2567</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>2572</v>
+        <v>2567</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>2167</v>
@@ -14125,7 +14122,7 @@
         <v>2168</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="L30" s="6" t="b">
         <v>0</v>
@@ -14170,10 +14167,10 @@
         <v>2141</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>2561</v>
+        <v>2556</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>2561</v>
+        <v>2556</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>892</v>
@@ -14182,7 +14179,7 @@
         <v>2204</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="L31" s="6" t="b">
         <v>0</v>
@@ -14226,19 +14223,19 @@
         <v>2141</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>2559</v>
+        <v>2591</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>2544</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>2580</v>
+        <v>2575</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>2594</v>
+        <v>2589</v>
       </c>
       <c r="L32" s="6" t="b">
         <v>0</v>
@@ -14278,19 +14275,19 @@
         <v>2141</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>2559</v>
+        <v>2591</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>2544</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>2580</v>
+        <v>2575</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>2594</v>
+        <v>2589</v>
       </c>
       <c r="L33" s="6" t="b">
         <v>0</v>
@@ -14335,19 +14332,19 @@
         <v>2141</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>2559</v>
+        <v>2591</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>2544</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>2580</v>
+        <v>2575</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>2594</v>
+        <v>2589</v>
       </c>
       <c r="L34" s="6" t="b">
         <v>0</v>
@@ -14387,19 +14384,19 @@
         <v>2141</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>2559</v>
+        <v>2591</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>2544</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>2580</v>
+        <v>2575</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>2594</v>
+        <v>2589</v>
       </c>
       <c r="L35" s="6" t="b">
         <v>0</v>
@@ -14444,19 +14441,19 @@
         <v>2141</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>2560</v>
+        <v>2590</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>2575</v>
+        <v>2570</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>2442</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>2581</v>
+        <v>2576</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L36" s="6" t="b">
         <v>0</v>
@@ -14496,19 +14493,19 @@
         <v>2141</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>2560</v>
+        <v>2590</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>2575</v>
+        <v>2570</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>2442</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>2581</v>
+        <v>2576</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L37" s="6" t="b">
         <v>0</v>
@@ -14553,19 +14550,19 @@
         <v>2141</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>2560</v>
+        <v>2590</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>2575</v>
+        <v>2570</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>2442</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>2581</v>
+        <v>2576</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L38" s="6" t="b">
         <v>0</v>
@@ -14610,10 +14607,10 @@
         <v>2141</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>2561</v>
+        <v>2556</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>2576</v>
+        <v>2571</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>1283</v>
@@ -14622,7 +14619,7 @@
         <v>1282</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L39" s="6" t="b">
         <v>0</v>
@@ -14667,19 +14664,19 @@
         <v>2141</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>2555</v>
+        <v>2593</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>2569</v>
+        <v>2564</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>2543</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>2579</v>
+        <v>2574</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>2594</v>
+        <v>2589</v>
       </c>
       <c r="L40" s="6" t="b">
         <v>0</v>
@@ -14719,19 +14716,19 @@
         <v>2141</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>2555</v>
+        <v>2593</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>2569</v>
+        <v>2564</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>2543</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>2579</v>
+        <v>2574</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>2594</v>
+        <v>2589</v>
       </c>
       <c r="L41" s="6" t="b">
         <v>0</v>
@@ -14775,19 +14772,19 @@
         <v>2141</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>2555</v>
+        <v>2593</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>2569</v>
+        <v>2564</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>2543</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>2579</v>
+        <v>2574</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>2594</v>
+        <v>2589</v>
       </c>
       <c r="L42" s="6" t="b">
         <v>0</v>
@@ -14831,20 +14828,20 @@
       <c r="F43" s="10" t="s">
         <v>2141</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>2560</v>
+      <c r="G43" s="6" t="s">
+        <v>2590</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>2575</v>
+        <v>2570</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>2484</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>2582</v>
+        <v>2577</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="L43" s="6" t="b">
         <v>0</v>

--- a/std/antibiotics.xlsx
+++ b/std/antibiotics.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullahalmohamad/Desktop/AB_consumption_analysis/std/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msfintl-my.sharepoint.com/personal/msfe-sy-pharma-assist_barcelona_msf_org/Documents/Abdullah/18-Automation/09-AB_consumption_analysis/std/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83558748-FE2D-9B42-94E2-678DB2900A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{C6B59B89-C610-8943-91B3-A78FA9783DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F02F5A1-FF86-4ABB-A0FC-1F5D024659F9}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="500" windowWidth="34480" windowHeight="19340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MSF_code" sheetId="5" r:id="rId1"/>
+    <sheet name="MSF_code" sheetId="5" state="hidden" r:id="rId1"/>
     <sheet name="PHC" sheetId="7" r:id="rId2"/>
-    <sheet name="ATC" sheetId="6" r:id="rId3"/>
-    <sheet name="AMR" sheetId="1" r:id="rId4"/>
+    <sheet name="ATC" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="AMR" sheetId="1" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">AMR!$A$1:$N$1</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5966" uniqueCount="2594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5966" uniqueCount="2595">
   <si>
     <t>ab</t>
   </si>
@@ -7700,18 +7700,33 @@
     <t>ATC-3</t>
   </si>
   <si>
+    <t>beta-lactam antibacterials, penicillins</t>
+  </si>
+  <si>
     <t>cephalosporins</t>
   </si>
   <si>
     <t>aminoglycoside antibacterials</t>
   </si>
   <si>
+    <t>other analgesics and antipyretics</t>
+  </si>
+  <si>
+    <t>macrolides, lincosamides and streptogramins</t>
+  </si>
+  <si>
     <t>quinolone antibacterials</t>
   </si>
   <si>
     <t>tetracyclines</t>
   </si>
   <si>
+    <t>antiinflammatory and antirheumatic products, non-steroids</t>
+  </si>
+  <si>
+    <t>agents against amoebiasis and other protozoal diseases</t>
+  </si>
+  <si>
     <t>other antibacterials</t>
   </si>
   <si>
@@ -7812,18 +7827,6 @@
   </si>
   <si>
     <t>not_AB</t>
-  </si>
-  <si>
-    <t>agents against amoebiasis</t>
-  </si>
-  <si>
-    <t>antiinflammatory non-steroids</t>
-  </si>
-  <si>
-    <t>penicillins</t>
-  </si>
-  <si>
-    <t>antipyretics</t>
   </si>
 </sst>
 </file>
@@ -8360,20 +8363,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="32.453125" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2491</v>
       </c>
@@ -8402,7 +8405,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8431,7 +8434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8460,7 +8463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8489,7 +8492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8518,7 +8521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8547,7 +8550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8576,7 +8579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8605,7 +8608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8634,7 +8637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8663,7 +8666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8692,7 +8695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8721,7 +8724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8750,7 +8753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8779,7 +8782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8808,7 +8811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8837,7 +8840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8866,7 +8869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8895,7 +8898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8953,7 +8956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8982,7 +8985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9011,7 +9014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9040,7 +9043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9069,7 +9072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9098,7 +9101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9127,7 +9130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9156,7 +9159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9185,7 +9188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9214,7 +9217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9243,7 +9246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9272,7 +9275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9301,7 +9304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9330,7 +9333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9359,7 +9362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9388,7 +9391,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9417,7 +9420,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9446,7 +9449,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9475,7 +9478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9504,7 +9507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9533,7 +9536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9562,7 +9565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9591,7 +9594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9620,7 +9623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9649,7 +9652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9678,7 +9681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9707,7 +9710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9736,7 +9739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9765,7 +9768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9794,7 +9797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9823,7 +9826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9852,7 +9855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9881,7 +9884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9910,7 +9913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9939,7 +9942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9968,7 +9971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9997,7 +10000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10026,7 +10029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10055,7 +10058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10084,7 +10087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10113,7 +10116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10142,7 +10145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10171,7 +10174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10200,7 +10203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10229,7 +10232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10258,7 +10261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10287,7 +10290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10316,7 +10319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10345,7 +10348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10374,7 +10377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10403,7 +10406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10432,7 +10435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10461,7 +10464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10490,7 +10493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10519,7 +10522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10548,7 +10551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10577,7 +10580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10606,7 +10609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10635,7 +10638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10664,7 +10667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10693,7 +10696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10722,7 +10725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10751,7 +10754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10780,7 +10783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10809,7 +10812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10838,7 +10841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10867,7 +10870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10896,7 +10899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10925,7 +10928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10954,7 +10957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10983,7 +10986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11012,7 +11015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11041,7 +11044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11070,7 +11073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11099,7 +11102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11128,7 +11131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11157,7 +11160,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11186,7 +11189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11215,7 +11218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11242,7 +11245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11269,7 +11272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11298,7 +11301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11327,7 +11330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11356,7 +11359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11385,7 +11388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11414,7 +11417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11443,7 +11446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11472,7 +11475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11501,7 +11504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11530,7 +11533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11559,7 +11562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11588,7 +11591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11617,7 +11620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11646,7 +11649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11675,7 +11678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11704,7 +11707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11733,7 +11736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11762,7 +11765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11791,7 +11794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11820,7 +11823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11849,7 +11852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11878,7 +11881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11907,7 +11910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11936,7 +11939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11965,7 +11968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11994,7 +11997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12023,7 +12026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12052,7 +12055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12081,7 +12084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12110,7 +12113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12139,7 +12142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12168,7 +12171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12197,7 +12200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12226,7 +12229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12255,7 +12258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12284,7 +12287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12313,7 +12316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12342,7 +12345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12371,7 +12374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12425,27 +12428,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA51841-03F0-47E2-8829-0B7F66C12DE2}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="34.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" style="5" customWidth="1"/>
-    <col min="11" max="13" width="8.6640625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="5"/>
+    <col min="1" max="1" width="12.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6.36328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6328125" style="5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.6328125" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="34.453125" style="5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="26.36328125" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" style="5" customWidth="1"/>
+    <col min="12" max="13" width="8.6328125" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="17" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="17" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>2206</v>
       </c>
@@ -12453,7 +12457,7 @@
         <v>2495</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>2578</v>
+        <v>2583</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>2539</v>
@@ -12468,40 +12472,40 @@
         <v>2551</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>2557</v>
+        <v>2562</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>2572</v>
+        <v>2577</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>2210</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>2581</v>
+        <v>2586</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>2586</v>
+        <v>2591</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>2592</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>2593</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>2587</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>2588</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>2582</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>2583</v>
-      </c>
       <c r="Q1" s="14" t="s">
-        <v>2584</v>
+        <v>2589</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2253</v>
       </c>
@@ -12521,10 +12525,10 @@
         <v>2145</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>2592</v>
+        <v>2552</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>2558</v>
+        <v>2563</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>2150</v>
@@ -12533,7 +12537,7 @@
         <v>2151</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L2" s="6" t="b">
         <v>0</v>
@@ -12555,10 +12559,10 @@
         <v>6</v>
       </c>
       <c r="R2" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2255</v>
       </c>
@@ -12578,10 +12582,10 @@
         <v>2145</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>2592</v>
+        <v>2552</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>2558</v>
+        <v>2563</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>2150</v>
@@ -12590,7 +12594,7 @@
         <v>2151</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L3" s="6" t="b">
         <v>1</v>
@@ -12612,10 +12616,10 @@
         <v>4</v>
       </c>
       <c r="R3" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2289</v>
       </c>
@@ -12635,10 +12639,10 @@
         <v>2145</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>2559</v>
+        <v>2564</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>301</v>
@@ -12647,7 +12651,7 @@
         <v>300</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L4" s="6" t="b">
         <v>0</v>
@@ -12662,16 +12666,16 @@
         <v>1</v>
       </c>
       <c r="P4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="6">
         <v>2</v>
       </c>
       <c r="R4" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2303</v>
       </c>
@@ -12691,10 +12695,10 @@
         <v>2145</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>2560</v>
+        <v>2565</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>418</v>
@@ -12703,7 +12707,7 @@
         <v>417</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="L5" s="6" t="b">
         <v>1</v>
@@ -12725,10 +12729,10 @@
         <v>6</v>
       </c>
       <c r="R5" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>2311</v>
       </c>
@@ -12748,10 +12752,10 @@
         <v>2145</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>2560</v>
+        <v>2565</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>565</v>
@@ -12760,7 +12764,7 @@
         <v>564</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="L6" s="6" t="b">
         <v>0</v>
@@ -12782,10 +12786,10 @@
         <v>4</v>
       </c>
       <c r="R6" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>2313</v>
       </c>
@@ -12805,10 +12809,10 @@
         <v>2145</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>2560</v>
+        <v>2565</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>565</v>
@@ -12817,7 +12821,7 @@
         <v>564</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="L7" s="6" t="b">
         <v>1</v>
@@ -12839,10 +12843,10 @@
         <v>8</v>
       </c>
       <c r="R7" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>2361</v>
       </c>
@@ -12862,10 +12866,10 @@
         <v>2145</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>2592</v>
+        <v>2552</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>2561</v>
+        <v>2566</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>685</v>
@@ -12874,7 +12878,7 @@
         <v>2158</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L8" s="6" t="b">
         <v>1</v>
@@ -12899,7 +12903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>2408</v>
       </c>
@@ -12919,10 +12923,10 @@
         <v>2145</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>2562</v>
+        <v>2567</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>2180</v>
@@ -12931,7 +12935,7 @@
         <v>2181</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L9" s="6" t="b">
         <v>0</v>
@@ -12953,10 +12957,10 @@
         <v>4.5</v>
       </c>
       <c r="R9" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2537</v>
       </c>
@@ -12976,10 +12980,10 @@
         <v>2145</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>2556</v>
+        <v>2561</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>2563</v>
+        <v>2568</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>2203</v>
@@ -12988,7 +12992,7 @@
         <v>1164</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L10" s="6" t="b">
         <v>0</v>
@@ -13013,7 +13017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>2540</v>
       </c>
@@ -13033,19 +13037,19 @@
         <v>2145</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>2593</v>
+        <v>2555</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>2564</v>
+        <v>2569</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>2573</v>
+        <v>2578</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>2574</v>
+        <v>2579</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>2589</v>
+        <v>2594</v>
       </c>
       <c r="L11" s="6" t="b">
         <v>1</v>
@@ -13070,7 +13074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>2275</v>
       </c>
@@ -13090,10 +13094,10 @@
         <v>2145</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>2592</v>
+        <v>2552</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>2565</v>
+        <v>2570</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>179</v>
@@ -13102,7 +13106,7 @@
         <v>178</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L12" s="6" t="b">
         <v>0</v>
@@ -13127,7 +13131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>2223</v>
       </c>
@@ -13147,10 +13151,10 @@
         <v>2141</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>2592</v>
+        <v>2552</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>2566</v>
+        <v>2571</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>58</v>
@@ -13159,7 +13163,7 @@
         <v>2160</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L13" s="6" t="b">
         <v>0</v>
@@ -13183,7 +13187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>2227</v>
       </c>
@@ -13203,10 +13207,10 @@
         <v>2141</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>2592</v>
+        <v>2552</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>2566</v>
+        <v>2571</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>58</v>
@@ -13215,7 +13219,7 @@
         <v>2160</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L14" s="6" t="b">
         <v>0</v>
@@ -13239,7 +13243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>2231</v>
       </c>
@@ -13259,10 +13263,10 @@
         <v>2141</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>2592</v>
+        <v>2552</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>2566</v>
+        <v>2571</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>58</v>
@@ -13271,7 +13275,7 @@
         <v>2160</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L15" s="6" t="b">
         <v>0</v>
@@ -13296,7 +13300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>2237</v>
       </c>
@@ -13316,10 +13320,10 @@
         <v>2141</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>2592</v>
+        <v>2552</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>2566</v>
+        <v>2571</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>58</v>
@@ -13328,7 +13332,7 @@
         <v>2160</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L16" s="6" t="b">
         <v>0</v>
@@ -13353,7 +13357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>2239</v>
       </c>
@@ -13373,10 +13377,10 @@
         <v>2141</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>2592</v>
+        <v>2552</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>2558</v>
+        <v>2563</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>50</v>
@@ -13385,7 +13389,7 @@
         <v>2153</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L17" s="6" t="b">
         <v>0</v>
@@ -13409,7 +13413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>2497</v>
       </c>
@@ -13429,10 +13433,10 @@
         <v>2141</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>2592</v>
+        <v>2552</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>2558</v>
+        <v>2563</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>50</v>
@@ -13441,7 +13445,7 @@
         <v>2153</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L18" s="6" t="b">
         <v>0</v>
@@ -13465,7 +13469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>2251</v>
       </c>
@@ -13485,10 +13489,10 @@
         <v>2141</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>2592</v>
+        <v>2552</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>2558</v>
+        <v>2563</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>50</v>
@@ -13497,7 +13501,7 @@
         <v>2153</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L19" s="6" t="b">
         <v>0</v>
@@ -13522,7 +13526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>2265</v>
       </c>
@@ -13542,10 +13546,10 @@
         <v>2141</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>2567</v>
+        <v>2556</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>2567</v>
+        <v>2572</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>2171</v>
@@ -13554,7 +13558,7 @@
         <v>2172</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="L20" s="6" t="b">
         <v>0</v>
@@ -13579,7 +13583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>2261</v>
       </c>
@@ -13599,10 +13603,10 @@
         <v>2141</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>2567</v>
+        <v>2556</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>2567</v>
+        <v>2572</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>2171</v>
@@ -13611,7 +13615,7 @@
         <v>2172</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="L21" s="6" t="b">
         <v>0</v>
@@ -13635,7 +13639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2267</v>
       </c>
@@ -13655,10 +13659,10 @@
         <v>2141</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>2567</v>
+        <v>2556</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>2567</v>
+        <v>2572</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>2171</v>
@@ -13667,7 +13671,7 @@
         <v>2172</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="L22" s="6" t="b">
         <v>0</v>
@@ -13692,7 +13696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>2295</v>
       </c>
@@ -13712,10 +13716,10 @@
         <v>2141</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>2560</v>
+        <v>2565</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>372</v>
@@ -13724,7 +13728,7 @@
         <v>371</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="L23" s="6" t="b">
         <v>0</v>
@@ -13748,7 +13752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>2297</v>
       </c>
@@ -13768,10 +13772,10 @@
         <v>2141</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>2560</v>
+        <v>2565</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>372</v>
@@ -13780,7 +13784,7 @@
         <v>371</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="L24" s="6" t="b">
         <v>0</v>
@@ -13805,7 +13809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>2283</v>
       </c>
@@ -13825,10 +13829,10 @@
         <v>2141</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>2559</v>
+        <v>2564</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>268</v>
@@ -13837,7 +13841,7 @@
         <v>267</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L25" s="6" t="b">
         <v>0</v>
@@ -13862,7 +13866,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>2331</v>
       </c>
@@ -13882,10 +13886,10 @@
         <v>2141</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>2568</v>
+        <v>2573</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>2187</v>
@@ -13894,7 +13898,7 @@
         <v>2188</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="L26" s="6" t="b">
         <v>0</v>
@@ -13919,7 +13923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>2333</v>
       </c>
@@ -13939,10 +13943,10 @@
         <v>2141</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>2568</v>
+        <v>2573</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>2187</v>
@@ -13951,7 +13955,7 @@
         <v>2188</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="L27" s="6" t="b">
         <v>0</v>
@@ -13973,10 +13977,10 @@
         <v>10</v>
       </c>
       <c r="R27" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>2357</v>
       </c>
@@ -13996,10 +14000,10 @@
         <v>2141</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>2592</v>
+        <v>2552</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>2561</v>
+        <v>2566</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>685</v>
@@ -14008,7 +14012,7 @@
         <v>2158</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L28" s="6" t="b">
         <v>0</v>
@@ -14033,7 +14037,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>2388</v>
       </c>
@@ -14053,10 +14057,10 @@
         <v>2141</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>2140</v>
@@ -14065,7 +14069,7 @@
         <v>2142</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L29" s="6" t="b">
         <v>0</v>
@@ -14087,10 +14091,10 @@
         <v>6.0000000000000009</v>
       </c>
       <c r="R29" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>2400</v>
       </c>
@@ -14110,10 +14114,10 @@
         <v>2141</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>2567</v>
+        <v>2556</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>2567</v>
+        <v>2572</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>2167</v>
@@ -14122,7 +14126,7 @@
         <v>2168</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="L30" s="6" t="b">
         <v>0</v>
@@ -14147,7 +14151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>2402</v>
       </c>
@@ -14167,10 +14171,10 @@
         <v>2141</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>2556</v>
+        <v>2561</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>2556</v>
+        <v>2561</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>892</v>
@@ -14179,7 +14183,7 @@
         <v>2204</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="L31" s="6" t="b">
         <v>0</v>
@@ -14203,7 +14207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>2509</v>
       </c>
@@ -14223,19 +14227,19 @@
         <v>2141</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>2591</v>
+        <v>2559</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>2569</v>
+        <v>2574</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>2544</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>2575</v>
+        <v>2580</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>2589</v>
+        <v>2594</v>
       </c>
       <c r="L32" s="6" t="b">
         <v>0</v>
@@ -14255,7 +14259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>2513</v>
       </c>
@@ -14275,19 +14279,19 @@
         <v>2141</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>2591</v>
+        <v>2559</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>2569</v>
+        <v>2574</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>2544</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>2575</v>
+        <v>2580</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>2589</v>
+        <v>2594</v>
       </c>
       <c r="L33" s="6" t="b">
         <v>0</v>
@@ -14309,10 +14313,10 @@
         <v>35.999999999999993</v>
       </c>
       <c r="R33" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>2511</v>
       </c>
@@ -14332,19 +14336,19 @@
         <v>2141</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>2591</v>
+        <v>2559</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>2569</v>
+        <v>2574</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>2544</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>2575</v>
+        <v>2580</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>2589</v>
+        <v>2594</v>
       </c>
       <c r="L34" s="6" t="b">
         <v>0</v>
@@ -14364,7 +14368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>2515</v>
       </c>
@@ -14384,19 +14388,19 @@
         <v>2141</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>2591</v>
+        <v>2559</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>2569</v>
+        <v>2574</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>2544</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>2575</v>
+        <v>2580</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>2589</v>
+        <v>2594</v>
       </c>
       <c r="L35" s="6" t="b">
         <v>0</v>
@@ -14418,10 +14422,10 @@
         <v>17.999999999999996</v>
       </c>
       <c r="R35" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>2439</v>
       </c>
@@ -14441,19 +14445,19 @@
         <v>2141</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>2590</v>
+        <v>2560</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>2570</v>
+        <v>2575</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>2442</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>2576</v>
+        <v>2581</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L36" s="6" t="b">
         <v>0</v>
@@ -14473,7 +14477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>2443</v>
       </c>
@@ -14493,19 +14497,19 @@
         <v>2141</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>2590</v>
+        <v>2560</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>2570</v>
+        <v>2575</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>2442</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>2576</v>
+        <v>2581</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L37" s="6" t="b">
         <v>0</v>
@@ -14527,10 +14531,10 @@
         <v>48</v>
       </c>
       <c r="R37" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>2445</v>
       </c>
@@ -14550,19 +14554,19 @@
         <v>2141</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>2590</v>
+        <v>2560</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>2570</v>
+        <v>2575</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>2442</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>2576</v>
+        <v>2581</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L38" s="6" t="b">
         <v>0</v>
@@ -14584,10 +14588,10 @@
         <v>24</v>
       </c>
       <c r="R38" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>2451</v>
       </c>
@@ -14607,10 +14611,10 @@
         <v>2141</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>2556</v>
+        <v>2561</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>2571</v>
+        <v>2576</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>1283</v>
@@ -14619,7 +14623,7 @@
         <v>1282</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L39" s="6" t="b">
         <v>0</v>
@@ -14631,20 +14635,20 @@
         <v>1</v>
       </c>
       <c r="O39" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P39" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q39" s="6">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>12.000000000000002</v>
       </c>
       <c r="R39" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>2523</v>
       </c>
@@ -14664,19 +14668,19 @@
         <v>2141</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>2593</v>
+        <v>2555</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>2564</v>
+        <v>2569</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>2543</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>2574</v>
+        <v>2579</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>2589</v>
+        <v>2594</v>
       </c>
       <c r="L40" s="6" t="b">
         <v>0</v>
@@ -14696,7 +14700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>2521</v>
       </c>
@@ -14716,19 +14720,19 @@
         <v>2141</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>2593</v>
+        <v>2555</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>2564</v>
+        <v>2569</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>2543</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>2574</v>
+        <v>2579</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>2589</v>
+        <v>2594</v>
       </c>
       <c r="L41" s="6" t="b">
         <v>0</v>
@@ -14752,7 +14756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>2525</v>
       </c>
@@ -14772,19 +14776,19 @@
         <v>2141</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>2593</v>
+        <v>2555</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>2564</v>
+        <v>2569</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>2543</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>2574</v>
+        <v>2579</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>2589</v>
+        <v>2594</v>
       </c>
       <c r="L42" s="6" t="b">
         <v>0</v>
@@ -14806,10 +14810,10 @@
         <v>24</v>
       </c>
       <c r="R42" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>2481</v>
       </c>
@@ -14828,20 +14832,20 @@
       <c r="F43" s="10" t="s">
         <v>2141</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>2590</v>
+      <c r="G43" s="11" t="s">
+        <v>2560</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>2570</v>
+        <v>2575</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>2484</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>2577</v>
+        <v>2582</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="L43" s="6" t="b">
         <v>0</v>
@@ -14881,18 +14885,18 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2076</v>
       </c>
@@ -14909,7 +14913,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2080</v>
       </c>
@@ -14920,7 +14924,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2081</v>
       </c>
@@ -14931,7 +14935,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2545</v>
       </c>
@@ -14942,7 +14946,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -14953,7 +14957,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -14961,7 +14965,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -14969,7 +14973,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -14980,7 +14984,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -14991,7 +14995,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -15002,7 +15006,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -15013,7 +15017,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -15021,7 +15025,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -15029,7 +15033,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2093</v>
       </c>
@@ -15037,7 +15041,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2547</v>
       </c>
@@ -15048,7 +15052,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -15059,7 +15063,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -15070,7 +15074,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -15081,7 +15085,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -15092,7 +15096,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -15103,7 +15107,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -15114,7 +15118,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2104</v>
       </c>
@@ -15125,7 +15129,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -15136,7 +15140,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -15144,7 +15148,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>20</v>
       </c>
@@ -15155,7 +15159,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -15166,7 +15170,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>20</v>
       </c>
@@ -15177,7 +15181,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>20</v>
       </c>
@@ -15188,7 +15192,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2115</v>
       </c>
@@ -15199,7 +15203,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>20</v>
       </c>
@@ -15210,7 +15214,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>20</v>
       </c>
@@ -15221,7 +15225,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>20</v>
       </c>
@@ -15232,7 +15236,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2119</v>
       </c>
@@ -15243,7 +15247,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>20</v>
       </c>
@@ -15254,7 +15258,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>20</v>
       </c>
@@ -15265,7 +15269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2122</v>
       </c>
@@ -15276,7 +15280,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>20</v>
       </c>
@@ -15287,7 +15291,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>20</v>
       </c>
@@ -15298,7 +15302,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2125</v>
       </c>
@@ -15309,7 +15313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>2126</v>
       </c>
@@ -15320,7 +15324,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>20</v>
       </c>
@@ -15331,7 +15335,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>20</v>
       </c>
@@ -15342,7 +15346,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>20</v>
       </c>
@@ -15353,7 +15357,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>20</v>
       </c>
@@ -15364,7 +15368,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>20</v>
       </c>
@@ -15375,7 +15379,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>20</v>
       </c>
@@ -15386,7 +15390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>2135</v>
       </c>
@@ -15397,7 +15401,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>20</v>
       </c>
@@ -15405,7 +15409,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
         <v>2079</v>
       </c>
@@ -15416,7 +15420,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
         <v>2140</v>
       </c>
@@ -15427,7 +15431,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E52" t="s">
         <v>2143</v>
       </c>
@@ -15438,7 +15442,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E53" t="s">
         <v>1964</v>
       </c>
@@ -15449,7 +15453,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E54" t="s">
         <v>2147</v>
       </c>
@@ -15460,7 +15464,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E55" t="s">
         <v>2147</v>
       </c>
@@ -15471,7 +15475,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E56" t="s">
         <v>2150</v>
       </c>
@@ -15482,7 +15486,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E57" t="s">
         <v>2150</v>
       </c>
@@ -15493,7 +15497,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E58" t="s">
         <v>50</v>
       </c>
@@ -15504,7 +15508,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E59" t="s">
         <v>2154</v>
       </c>
@@ -15515,7 +15519,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E60" t="s">
         <v>1424</v>
       </c>
@@ -15526,7 +15530,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E61" t="s">
         <v>179</v>
       </c>
@@ -15537,7 +15541,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E62" t="s">
         <v>1507</v>
       </c>
@@ -15548,7 +15552,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E63" t="s">
         <v>2156</v>
       </c>
@@ -15559,7 +15563,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E64" t="s">
         <v>685</v>
       </c>
@@ -15570,7 +15574,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E65" t="s">
         <v>685</v>
       </c>
@@ -15581,7 +15585,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E66" t="s">
         <v>58</v>
       </c>
@@ -15592,7 +15596,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E67" t="s">
         <v>58</v>
       </c>
@@ -15603,7 +15607,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E68" t="s">
         <v>1446</v>
       </c>
@@ -15614,7 +15618,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E69" t="s">
         <v>268</v>
       </c>
@@ -15625,7 +15629,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E70" t="s">
         <v>301</v>
       </c>
@@ -15636,7 +15640,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E71" t="s">
         <v>418</v>
       </c>
@@ -15647,7 +15651,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E72" t="s">
         <v>512</v>
       </c>
@@ -15658,7 +15662,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E73" t="s">
         <v>565</v>
       </c>
@@ -15669,7 +15673,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E74" t="s">
         <v>372</v>
       </c>
@@ -15680,7 +15684,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E75" t="s">
         <v>334</v>
       </c>
@@ -15691,7 +15695,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
         <v>1127</v>
       </c>
@@ -15702,7 +15706,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E77" t="s">
         <v>804</v>
       </c>
@@ -15713,7 +15717,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E78" t="s">
         <v>980</v>
       </c>
@@ -15724,7 +15728,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E79" t="s">
         <v>2164</v>
       </c>
@@ -15735,7 +15739,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E80" t="s">
         <v>2164</v>
       </c>
@@ -15746,7 +15750,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E81" t="s">
         <v>2167</v>
       </c>
@@ -15757,7 +15761,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E82" t="s">
         <v>2167</v>
       </c>
@@ -15768,7 +15772,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E83" t="s">
         <v>644</v>
       </c>
@@ -15779,7 +15783,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E84" t="s">
         <v>2171</v>
       </c>
@@ -15790,7 +15794,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E85" t="s">
         <v>2173</v>
       </c>
@@ -15801,7 +15805,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E86" t="s">
         <v>2173</v>
       </c>
@@ -15812,7 +15816,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E87" t="s">
         <v>1501</v>
       </c>
@@ -15823,7 +15827,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E88" t="s">
         <v>2176</v>
       </c>
@@ -15834,7 +15838,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E89" t="s">
         <v>2178</v>
       </c>
@@ -15845,7 +15849,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E90" t="s">
         <v>2180</v>
       </c>
@@ -15856,7 +15860,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E91" t="s">
         <v>2182</v>
       </c>
@@ -15867,7 +15871,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E92" t="s">
         <v>2184</v>
       </c>
@@ -15878,7 +15882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E93" t="s">
         <v>2185</v>
       </c>
@@ -15889,7 +15893,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="94" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E94" t="s">
         <v>2187</v>
       </c>
@@ -15900,7 +15904,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="95" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E95" t="s">
         <v>2187</v>
       </c>
@@ -15911,7 +15915,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E96" t="s">
         <v>2190</v>
       </c>
@@ -15922,7 +15926,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="97" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E97" t="s">
         <v>2192</v>
       </c>
@@ -15933,7 +15937,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="98" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E98" t="s">
         <v>2194</v>
       </c>
@@ -15944,7 +15948,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="99" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E99" t="s">
         <v>1687</v>
       </c>
@@ -15955,7 +15959,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="100" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E100" t="s">
         <v>2197</v>
       </c>
@@ -15966,7 +15970,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="101" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E101" t="s">
         <v>1881</v>
       </c>
@@ -15977,7 +15981,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="102" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E102" t="s">
         <v>2199</v>
       </c>
@@ -15988,7 +15992,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="103" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E103" t="s">
         <v>2201</v>
       </c>
@@ -15999,7 +16003,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="104" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E104" t="s">
         <v>2203</v>
       </c>
@@ -16010,7 +16014,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="105" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E105" t="s">
         <v>1283</v>
       </c>
@@ -16021,7 +16025,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="106" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E106" t="s">
         <v>892</v>
       </c>
@@ -16032,7 +16036,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="107" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E107" t="s">
         <v>1677</v>
       </c>
@@ -16043,7 +16047,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="108" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E108" t="s">
         <v>1088</v>
       </c>
@@ -16067,25 +16071,25 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="98.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="98.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16129,7 +16133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -16169,7 +16173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -16201,7 +16205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -16233,7 +16237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -16273,7 +16277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -16313,7 +16317,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -16343,7 +16347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -16387,7 +16391,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -16431,7 +16435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -16463,7 +16467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
@@ -16507,7 +16511,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -16537,7 +16541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -16581,7 +16585,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>83</v>
       </c>
@@ -16621,7 +16625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
@@ -16653,7 +16657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
@@ -16693,7 +16697,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>98</v>
       </c>
@@ -16725,7 +16729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>101</v>
       </c>
@@ -16757,7 +16761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>104</v>
       </c>
@@ -16793,7 +16797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>108</v>
       </c>
@@ -16829,7 +16833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
@@ -16861,7 +16865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>115</v>
       </c>
@@ -16893,7 +16897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>118</v>
       </c>
@@ -16925,7 +16929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>121</v>
       </c>
@@ -16957,7 +16961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>125</v>
       </c>
@@ -16997,7 +17001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>130</v>
       </c>
@@ -17041,7 +17045,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>138</v>
       </c>
@@ -17075,7 +17079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>142</v>
       </c>
@@ -17115,7 +17119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>147</v>
       </c>
@@ -17155,7 +17159,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>155</v>
       </c>
@@ -17185,7 +17189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>157</v>
       </c>
@@ -17215,7 +17219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
@@ -17255,7 +17259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>163</v>
       </c>
@@ -17287,7 +17291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>168</v>
       </c>
@@ -17323,7 +17327,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>173</v>
       </c>
@@ -17359,7 +17363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>177</v>
       </c>
@@ -17397,7 +17401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>181</v>
       </c>
@@ -17437,7 +17441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>185</v>
       </c>
@@ -17477,7 +17481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>190</v>
       </c>
@@ -17509,7 +17513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>195</v>
       </c>
@@ -17545,7 +17549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>200</v>
       </c>
@@ -17577,7 +17581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>204</v>
       </c>
@@ -17617,7 +17621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>211</v>
       </c>
@@ -17649,7 +17653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>215</v>
       </c>
@@ -17681,7 +17685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>219</v>
       </c>
@@ -17719,7 +17723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>222</v>
       </c>
@@ -17759,7 +17763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>226</v>
       </c>
@@ -17799,7 +17803,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>232</v>
       </c>
@@ -17839,7 +17843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>236</v>
       </c>
@@ -17875,7 +17879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>240</v>
       </c>
@@ -17915,7 +17919,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>246</v>
       </c>
@@ -17951,7 +17955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>252</v>
       </c>
@@ -17991,7 +17995,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>260</v>
       </c>
@@ -18031,7 +18035,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>266</v>
       </c>
@@ -18071,7 +18075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>271</v>
       </c>
@@ -18111,7 +18115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>276</v>
       </c>
@@ -18151,7 +18155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>281</v>
       </c>
@@ -18191,7 +18195,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>287</v>
       </c>
@@ -18231,7 +18235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>291</v>
       </c>
@@ -18271,7 +18275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>295</v>
       </c>
@@ -18311,7 +18315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>299</v>
       </c>
@@ -18351,7 +18355,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>305</v>
       </c>
@@ -18387,7 +18391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>309</v>
       </c>
@@ -18423,7 +18427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>314</v>
       </c>
@@ -18455,7 +18459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>317</v>
       </c>
@@ -18495,7 +18499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>323</v>
       </c>
@@ -18535,7 +18539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>328</v>
       </c>
@@ -18567,7 +18571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>331</v>
       </c>
@@ -18607,7 +18611,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>339</v>
       </c>
@@ -18641,7 +18645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>342</v>
       </c>
@@ -18673,7 +18677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>345</v>
       </c>
@@ -18703,7 +18707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>347</v>
       </c>
@@ -18735,7 +18739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>349</v>
       </c>
@@ -18765,7 +18769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>351</v>
       </c>
@@ -18805,7 +18809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>355</v>
       </c>
@@ -18837,7 +18841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>358</v>
       </c>
@@ -18869,7 +18873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>362</v>
       </c>
@@ -18901,7 +18905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>366</v>
       </c>
@@ -18933,7 +18937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>370</v>
       </c>
@@ -18973,7 +18977,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>376</v>
       </c>
@@ -19007,7 +19011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>379</v>
       </c>
@@ -19047,7 +19051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>383</v>
       </c>
@@ -19087,7 +19091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>387</v>
       </c>
@@ -19123,7 +19127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>391</v>
       </c>
@@ -19163,7 +19167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>395</v>
       </c>
@@ -19203,7 +19207,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>400</v>
       </c>
@@ -19243,7 +19247,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>406</v>
       </c>
@@ -19281,7 +19285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>409</v>
       </c>
@@ -19321,7 +19325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>413</v>
       </c>
@@ -19353,7 +19357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>416</v>
       </c>
@@ -19393,7 +19397,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>422</v>
       </c>
@@ -19425,7 +19429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>426</v>
       </c>
@@ -19457,7 +19461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>428</v>
       </c>
@@ -19497,7 +19501,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>434</v>
       </c>
@@ -19541,7 +19545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>438</v>
       </c>
@@ -19573,7 +19577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>441</v>
       </c>
@@ -19605,7 +19609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>444</v>
       </c>
@@ -19645,7 +19649,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>450</v>
       </c>
@@ -19675,7 +19679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>453</v>
       </c>
@@ -19711,7 +19715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>457</v>
       </c>
@@ -19743,7 +19747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>460</v>
       </c>
@@ -19783,7 +19787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>464</v>
       </c>
@@ -19823,7 +19827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>469</v>
       </c>
@@ -19863,7 +19867,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>475</v>
       </c>
@@ -19895,7 +19899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>478</v>
       </c>
@@ -19925,7 +19929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>481</v>
       </c>
@@ -19965,7 +19969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>486</v>
       </c>
@@ -19997,7 +20001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>489</v>
       </c>
@@ -20037,7 +20041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>493</v>
       </c>
@@ -20077,7 +20081,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>499</v>
       </c>
@@ -20109,7 +20113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>502</v>
       </c>
@@ -20145,7 +20149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>508</v>
       </c>
@@ -20175,7 +20179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>510</v>
       </c>
@@ -20215,7 +20219,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>516</v>
       </c>
@@ -20247,7 +20251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>520</v>
       </c>
@@ -20287,7 +20291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>524</v>
       </c>
@@ -20323,7 +20327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>528</v>
       </c>
@@ -20355,7 +20359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>531</v>
       </c>
@@ -20395,7 +20399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>535</v>
       </c>
@@ -20435,7 +20439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>540</v>
       </c>
@@ -20467,7 +20471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>543</v>
       </c>
@@ -20507,7 +20511,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>549</v>
       </c>
@@ -20539,7 +20543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>551</v>
       </c>
@@ -20571,7 +20575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>554</v>
       </c>
@@ -20611,7 +20615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>558</v>
       </c>
@@ -20651,7 +20655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>563</v>
       </c>
@@ -20691,7 +20695,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>569</v>
       </c>
@@ -20729,7 +20733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>572</v>
       </c>
@@ -20773,7 +20777,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>578</v>
       </c>
@@ -20805,7 +20809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>582</v>
       </c>
@@ -20839,7 +20843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>585</v>
       </c>
@@ -20871,7 +20875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>588</v>
       </c>
@@ -20915,7 +20919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>593</v>
       </c>
@@ -20947,7 +20951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>597</v>
       </c>
@@ -20991,7 +20995,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>604</v>
       </c>
@@ -21031,7 +21035,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>609</v>
       </c>
@@ -21063,7 +21067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>612</v>
       </c>
@@ -21099,7 +21103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>619</v>
       </c>
@@ -21139,7 +21143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>626</v>
       </c>
@@ -21183,7 +21187,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>633</v>
       </c>
@@ -21217,7 +21221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>636</v>
       </c>
@@ -21251,7 +21255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>639</v>
       </c>
@@ -21285,7 +21289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>642</v>
       </c>
@@ -21329,7 +21333,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>648</v>
       </c>
@@ -21361,7 +21365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>651</v>
       </c>
@@ -21393,7 +21397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>654</v>
       </c>
@@ -21437,7 +21441,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>661</v>
       </c>
@@ -21477,7 +21481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>666</v>
       </c>
@@ -21513,7 +21517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>670</v>
       </c>
@@ -21553,7 +21557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>674</v>
       </c>
@@ -21593,7 +21597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>678</v>
       </c>
@@ -21625,7 +21629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>683</v>
       </c>
@@ -21669,7 +21673,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>690</v>
       </c>
@@ -21713,7 +21717,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>698</v>
       </c>
@@ -21743,7 +21747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>700</v>
       </c>
@@ -21783,7 +21787,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>706</v>
       </c>
@@ -21823,7 +21827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>712</v>
       </c>
@@ -21855,7 +21859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>715</v>
       </c>
@@ -21895,7 +21899,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>720</v>
       </c>
@@ -21935,7 +21939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>725</v>
       </c>
@@ -21975,7 +21979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>729</v>
       </c>
@@ -22015,7 +22019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>735</v>
       </c>
@@ -22055,7 +22059,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>740</v>
       </c>
@@ -22095,7 +22099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>744</v>
       </c>
@@ -22139,7 +22143,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>750</v>
       </c>
@@ -22171,7 +22175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>753</v>
       </c>
@@ -22211,7 +22215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>757</v>
       </c>
@@ -22251,7 +22255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>762</v>
       </c>
@@ -22295,7 +22299,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>768</v>
       </c>
@@ -22331,7 +22335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>774</v>
       </c>
@@ -22371,7 +22375,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>780</v>
       </c>
@@ -22403,7 +22407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>783</v>
       </c>
@@ -22435,7 +22439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>788</v>
       </c>
@@ -22465,7 +22469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>790</v>
       </c>
@@ -22509,7 +22513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>794</v>
       </c>
@@ -22541,7 +22545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>797</v>
       </c>
@@ -22577,7 +22581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>802</v>
       </c>
@@ -22617,7 +22621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>807</v>
       </c>
@@ -22661,7 +22665,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>813</v>
       </c>
@@ -22705,7 +22709,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>819</v>
       </c>
@@ -22741,7 +22745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>823</v>
       </c>
@@ -22781,7 +22785,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>830</v>
       </c>
@@ -22813,7 +22817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>833</v>
       </c>
@@ -22841,7 +22845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>835</v>
       </c>
@@ -22881,7 +22885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>839</v>
       </c>
@@ -22917,7 +22921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>843</v>
       </c>
@@ -22949,7 +22953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>846</v>
       </c>
@@ -22981,7 +22985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>849</v>
       </c>
@@ -23025,7 +23029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>854</v>
       </c>
@@ -23061,7 +23065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>858</v>
       </c>
@@ -23093,7 +23097,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>862</v>
       </c>
@@ -23137,7 +23141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>867</v>
       </c>
@@ -23181,7 +23185,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>874</v>
       </c>
@@ -23217,7 +23221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>879</v>
       </c>
@@ -23257,7 +23261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>883</v>
       </c>
@@ -23297,7 +23301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>887</v>
       </c>
@@ -23329,7 +23333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>890</v>
       </c>
@@ -23373,7 +23377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>895</v>
       </c>
@@ -23405,7 +23409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>898</v>
       </c>
@@ -23437,7 +23441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>903</v>
       </c>
@@ -23477,7 +23481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>908</v>
       </c>
@@ -23509,7 +23513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>912</v>
       </c>
@@ -23553,7 +23557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>918</v>
       </c>
@@ -23585,7 +23589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>921</v>
       </c>
@@ -23621,7 +23625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>925</v>
       </c>
@@ -23665,7 +23669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>930</v>
       </c>
@@ -23705,7 +23709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>934</v>
       </c>
@@ -23745,7 +23749,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>940</v>
       </c>
@@ -23775,7 +23779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>943</v>
       </c>
@@ -23807,7 +23811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>946</v>
       </c>
@@ -23847,7 +23851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>951</v>
       </c>
@@ -23883,7 +23887,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>956</v>
       </c>
@@ -23915,7 +23919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>959</v>
       </c>
@@ -23951,7 +23955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>963</v>
       </c>
@@ -23991,7 +23995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>967</v>
       </c>
@@ -24023,7 +24027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>970</v>
       </c>
@@ -24053,7 +24057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>974</v>
       </c>
@@ -24085,7 +24089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>978</v>
       </c>
@@ -24125,7 +24129,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>984</v>
       </c>
@@ -24155,7 +24159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>986</v>
       </c>
@@ -24185,7 +24189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>989</v>
       </c>
@@ -24225,7 +24229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>994</v>
       </c>
@@ -24265,7 +24269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>998</v>
       </c>
@@ -24301,7 +24305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>1003</v>
       </c>
@@ -24345,7 +24349,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>1010</v>
       </c>
@@ -24379,7 +24383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>1013</v>
       </c>
@@ -24423,7 +24427,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>1019</v>
       </c>
@@ -24463,7 +24467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>1023</v>
       </c>
@@ -24507,7 +24511,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>1029</v>
       </c>
@@ -24537,7 +24541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>1032</v>
       </c>
@@ -24567,7 +24571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>1034</v>
       </c>
@@ -24607,7 +24611,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>1041</v>
       </c>
@@ -24637,7 +24641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>1044</v>
       </c>
@@ -24669,7 +24673,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>1048</v>
       </c>
@@ -24709,7 +24713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>1052</v>
       </c>
@@ -24749,7 +24753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>1057</v>
       </c>
@@ -24781,7 +24785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>1061</v>
       </c>
@@ -24813,7 +24817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>1064</v>
       </c>
@@ -24857,7 +24861,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>1070</v>
       </c>
@@ -24891,7 +24895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>1073</v>
       </c>
@@ -24923,7 +24927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>1077</v>
       </c>
@@ -24953,7 +24957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>1080</v>
       </c>
@@ -24997,7 +25001,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>1086</v>
       </c>
@@ -25041,7 +25045,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>1092</v>
       </c>
@@ -25071,7 +25075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>1094</v>
       </c>
@@ -25111,7 +25115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>1099</v>
       </c>
@@ -25151,7 +25155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>1104</v>
       </c>
@@ -25195,7 +25199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>1108</v>
       </c>
@@ -25235,7 +25239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>1112</v>
       </c>
@@ -25265,7 +25269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>1115</v>
       </c>
@@ -25297,7 +25301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>1118</v>
       </c>
@@ -25337,7 +25341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>1123</v>
       </c>
@@ -25369,7 +25373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>1125</v>
       </c>
@@ -25409,7 +25413,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>1131</v>
       </c>
@@ -25439,7 +25443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>1133</v>
       </c>
@@ -25477,7 +25481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>1137</v>
       </c>
@@ -25509,7 +25513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>1140</v>
       </c>
@@ -25549,7 +25553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>1144</v>
       </c>
@@ -25593,7 +25597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>1148</v>
       </c>
@@ -25633,7 +25637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>1152</v>
       </c>
@@ -25673,7 +25677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>1157</v>
       </c>
@@ -25705,7 +25709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>1160</v>
       </c>
@@ -25737,7 +25741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>1163</v>
       </c>
@@ -25781,7 +25785,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>1169</v>
       </c>
@@ -25821,7 +25825,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>1175</v>
       </c>
@@ -25851,7 +25855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>1177</v>
       </c>
@@ -25891,7 +25895,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>1183</v>
       </c>
@@ -25935,7 +25939,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>1189</v>
       </c>
@@ -25967,7 +25971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>1193</v>
       </c>
@@ -26011,7 +26015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>1197</v>
       </c>
@@ -26043,7 +26047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>1200</v>
       </c>
@@ -26087,7 +26091,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>1206</v>
       </c>
@@ -26127,7 +26131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>1210</v>
       </c>
@@ -26159,7 +26163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>1213</v>
       </c>
@@ -26195,7 +26199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>1217</v>
       </c>
@@ -26239,7 +26243,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>1223</v>
       </c>
@@ -26271,7 +26275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>1228</v>
       </c>
@@ -26303,7 +26307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>1231</v>
       </c>
@@ -26335,7 +26339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>1235</v>
       </c>
@@ -26371,7 +26375,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>1240</v>
       </c>
@@ -26403,7 +26407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>1243</v>
       </c>
@@ -26443,7 +26447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>1248</v>
       </c>
@@ -26475,7 +26479,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>1252</v>
       </c>
@@ -26511,7 +26515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>1256</v>
       </c>
@@ -26551,7 +26555,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>1261</v>
       </c>
@@ -26595,7 +26599,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>1267</v>
       </c>
@@ -26627,7 +26631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>1270</v>
       </c>
@@ -26659,7 +26663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>1273</v>
       </c>
@@ -26699,7 +26703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>1277</v>
       </c>
@@ -26735,7 +26739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>1281</v>
       </c>
@@ -26775,7 +26779,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>1287</v>
       </c>
@@ -26807,7 +26811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>1290</v>
       </c>
@@ -26847,7 +26851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>1294</v>
       </c>
@@ -26887,7 +26891,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>1300</v>
       </c>
@@ -26921,7 +26925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>1303</v>
       </c>
@@ -26955,7 +26959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>1306</v>
       </c>
@@ -26987,7 +26991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>1309</v>
       </c>
@@ -27019,7 +27023,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>1314</v>
       </c>
@@ -27055,7 +27059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>1319</v>
       </c>
@@ -27099,7 +27103,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>1325</v>
       </c>
@@ -27133,7 +27137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>1328</v>
       </c>
@@ -27173,7 +27177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>1332</v>
       </c>
@@ -27213,7 +27217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>1336</v>
       </c>
@@ -27245,7 +27249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>1339</v>
       </c>
@@ -27277,7 +27281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>1342</v>
       </c>
@@ -27313,7 +27317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>1347</v>
       </c>
@@ -27343,7 +27347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>1349</v>
       </c>
@@ -27387,7 +27391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>1353</v>
       </c>
@@ -27423,7 +27427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>1357</v>
       </c>
@@ -27467,7 +27471,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>1363</v>
       </c>
@@ -27507,7 +27511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>1367</v>
       </c>
@@ -27551,7 +27555,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>1372</v>
       </c>
@@ -27579,7 +27583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>1376</v>
       </c>
@@ -27611,7 +27615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>1378</v>
       </c>
@@ -27643,7 +27647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>1382</v>
       </c>
@@ -27679,7 +27683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>1386</v>
       </c>
@@ -27719,7 +27723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>1390</v>
       </c>
@@ -27763,7 +27767,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>1396</v>
       </c>
@@ -27803,7 +27807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>1400</v>
       </c>
@@ -27833,7 +27837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>1402</v>
       </c>
@@ -27863,7 +27867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>1404</v>
       </c>
@@ -27899,7 +27903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>1408</v>
       </c>
@@ -27931,7 +27935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>1411</v>
       </c>
@@ -27963,7 +27967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>1414</v>
       </c>
@@ -27995,7 +27999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>1417</v>
       </c>
@@ -28035,7 +28039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>1422</v>
       </c>
@@ -28075,7 +28079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>1427</v>
       </c>
@@ -28107,7 +28111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>1431</v>
       </c>
@@ -28147,7 +28151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>1436</v>
       </c>
@@ -28187,7 +28191,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>1442</v>
       </c>
@@ -28217,7 +28221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>1444</v>
       </c>
@@ -28257,7 +28261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>1449</v>
       </c>
@@ -28289,7 +28293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>1452</v>
       </c>
@@ -28321,7 +28325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>1455</v>
       </c>
@@ -28361,7 +28365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>1459</v>
       </c>
@@ -28401,7 +28405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>1463</v>
       </c>
@@ -28441,7 +28445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>1467</v>
       </c>
@@ -28473,7 +28477,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>1472</v>
       </c>
@@ -28517,7 +28521,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>1478</v>
       </c>
@@ -28547,7 +28551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>1480</v>
       </c>
@@ -28591,7 +28595,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>1486</v>
       </c>
@@ -28623,7 +28627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>1489</v>
       </c>
@@ -28655,7 +28659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>1492</v>
       </c>
@@ -28691,7 +28695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>1496</v>
       </c>
@@ -28723,7 +28727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>1499</v>
       </c>
@@ -28763,7 +28767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>1505</v>
       </c>
@@ -28803,7 +28807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>1509</v>
       </c>
@@ -28843,7 +28847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>1513</v>
       </c>
@@ -28875,7 +28879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>1516</v>
       </c>
@@ -28915,7 +28919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>1521</v>
       </c>
@@ -28955,7 +28959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>1525</v>
       </c>
@@ -28995,7 +28999,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>1531</v>
       </c>
@@ -29035,7 +29039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>1535</v>
       </c>
@@ -29067,7 +29071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>1538</v>
       </c>
@@ -29099,7 +29103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>1541</v>
       </c>
@@ -29131,7 +29135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>1544</v>
       </c>
@@ -29167,7 +29171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>1551</v>
       </c>
@@ -29197,7 +29201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>1554</v>
       </c>
@@ -29235,7 +29239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>1559</v>
       </c>
@@ -29275,7 +29279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>1563</v>
       </c>
@@ -29307,7 +29311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>1566</v>
       </c>
@@ -29347,7 +29351,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>1572</v>
       </c>
@@ -29391,7 +29395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>1577</v>
       </c>
@@ -29427,7 +29431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>1580</v>
       </c>
@@ -29461,7 +29465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>1584</v>
       </c>
@@ -29495,7 +29499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>1587</v>
       </c>
@@ -29529,7 +29533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>1590</v>
       </c>
@@ -29569,7 +29573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>1594</v>
       </c>
@@ -29609,7 +29613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>1599</v>
       </c>
@@ -29649,7 +29653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>1604</v>
       </c>
@@ -29681,7 +29685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>1607</v>
       </c>
@@ -29713,7 +29717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>1610</v>
       </c>
@@ -29753,7 +29757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>1614</v>
       </c>
@@ -29793,7 +29797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>1618</v>
       </c>
@@ -29833,7 +29837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>1622</v>
       </c>
@@ -29871,7 +29875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>1627</v>
       </c>
@@ -29911,7 +29915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>1631</v>
       </c>
@@ -29943,7 +29947,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>1635</v>
       </c>
@@ -29975,7 +29979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>1638</v>
       </c>
@@ -30015,7 +30019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>1642</v>
       </c>
@@ -30047,7 +30051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>1645</v>
       </c>
@@ -30083,7 +30087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>1649</v>
       </c>
@@ -30117,7 +30121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>1653</v>
       </c>
@@ -30157,7 +30161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>1658</v>
       </c>
@@ -30193,7 +30197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>1662</v>
       </c>
@@ -30237,7 +30241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>1666</v>
       </c>
@@ -30269,7 +30273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>1670</v>
       </c>
@@ -30309,7 +30313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>1675</v>
       </c>
@@ -30349,7 +30353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>1680</v>
       </c>
@@ -30389,7 +30393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>1685</v>
       </c>
@@ -30423,7 +30427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>1688</v>
       </c>
@@ -30461,7 +30465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>1693</v>
       </c>
@@ -30501,7 +30505,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>1699</v>
       </c>
@@ -30531,7 +30535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>1702</v>
       </c>
@@ -30565,7 +30569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>1705</v>
       </c>
@@ -30605,7 +30609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>1710</v>
       </c>
@@ -30645,7 +30649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>1714</v>
       </c>
@@ -30677,7 +30681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>1718</v>
       </c>
@@ -30709,7 +30713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>1721</v>
       </c>
@@ -30749,7 +30753,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>1727</v>
       </c>
@@ -30785,7 +30789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>1732</v>
       </c>
@@ -30821,7 +30825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>1736</v>
       </c>
@@ -30861,7 +30865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>1741</v>
       </c>
@@ -30901,7 +30905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>1746</v>
       </c>
@@ -30935,7 +30939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>1749</v>
       </c>
@@ -30979,7 +30983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>1754</v>
       </c>
@@ -31023,7 +31027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>1758</v>
       </c>
@@ -31063,7 +31067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>1762</v>
       </c>
@@ -31103,7 +31107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>1766</v>
       </c>
@@ -31143,7 +31147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>1770</v>
       </c>
@@ -31177,7 +31181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>1773</v>
       </c>
@@ -31209,7 +31213,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>1776</v>
       </c>
@@ -31249,7 +31253,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>1782</v>
       </c>
@@ -31289,7 +31293,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>1788</v>
       </c>
@@ -31329,7 +31333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>1792</v>
       </c>
@@ -31365,7 +31369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>1796</v>
       </c>
@@ -31405,7 +31409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>1800</v>
       </c>
@@ -31439,7 +31443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>1804</v>
       </c>
@@ -31483,7 +31487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>1808</v>
       </c>
@@ -31517,7 +31521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>1812</v>
       </c>
@@ -31553,7 +31557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>1816</v>
       </c>
@@ -31593,7 +31597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>1820</v>
       </c>
@@ -31633,7 +31637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>1824</v>
       </c>
@@ -31673,7 +31677,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>1829</v>
       </c>
@@ -31705,7 +31709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>1832</v>
       </c>
@@ -31741,7 +31745,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>1837</v>
       </c>
@@ -31781,7 +31785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>1841</v>
       </c>
@@ -31813,7 +31817,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>1844</v>
       </c>
@@ -31845,7 +31849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>1848</v>
       </c>
@@ -31877,7 +31881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>1851</v>
       </c>
@@ -31917,7 +31921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>1855</v>
       </c>
@@ -31949,7 +31953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>1858</v>
       </c>
@@ -31989,7 +31993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>1862</v>
       </c>
@@ -32021,7 +32025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>1865</v>
       </c>
@@ -32057,7 +32061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>1870</v>
       </c>
@@ -32089,7 +32093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>1874</v>
       </c>
@@ -32133,7 +32137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>1879</v>
       </c>
@@ -32173,7 +32177,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>1885</v>
       </c>
@@ -32203,7 +32207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>1887</v>
       </c>
@@ -32239,7 +32243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>1892</v>
       </c>
@@ -32279,7 +32283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>1897</v>
       </c>
@@ -32319,7 +32323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>1902</v>
       </c>
@@ -32359,7 +32363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>1907</v>
       </c>
@@ -32399,7 +32403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>1913</v>
       </c>
@@ -32431,7 +32435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>1917</v>
       </c>
@@ -32467,7 +32471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>1921</v>
       </c>
@@ -32511,7 +32515,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>1927</v>
       </c>
@@ -32547,7 +32551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>1930</v>
       </c>
@@ -32579,7 +32583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>1933</v>
       </c>
@@ -32611,7 +32615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>1936</v>
       </c>
@@ -32655,7 +32659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>1940</v>
       </c>
@@ -32691,7 +32695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>1944</v>
       </c>
@@ -32725,7 +32729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>1947</v>
       </c>
@@ -32757,7 +32761,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>1951</v>
       </c>
@@ -32797,7 +32801,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>1957</v>
       </c>
@@ -32837,7 +32841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>1962</v>
       </c>
@@ -32877,7 +32881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>1967</v>
       </c>
@@ -32909,7 +32913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>1971</v>
       </c>
@@ -32941,7 +32945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>1974</v>
       </c>
@@ -32973,7 +32977,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>1978</v>
       </c>
@@ -33017,7 +33021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>1983</v>
       </c>
@@ -33057,7 +33061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>1987</v>
       </c>
@@ -33089,7 +33093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>1990</v>
       </c>
@@ -33121,7 +33125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>1993</v>
       </c>
@@ -33153,7 +33157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>1996</v>
       </c>
@@ -33193,7 +33197,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>2002</v>
       </c>
@@ -33223,7 +33227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
         <v>2005</v>
       </c>
@@ -33259,7 +33263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>2009</v>
       </c>
@@ -33303,7 +33307,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
         <v>2015</v>
       </c>
@@ -33339,7 +33343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
         <v>2020</v>
       </c>
@@ -33379,7 +33383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
         <v>2024</v>
       </c>
@@ -33411,7 +33415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
         <v>2027</v>
       </c>
@@ -33455,7 +33459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
         <v>2032</v>
       </c>
@@ -33487,7 +33491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
         <v>2035</v>
       </c>
@@ -33519,7 +33523,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>2039</v>
       </c>
@@ -33551,7 +33555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>2043</v>
       </c>
@@ -33583,7 +33587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
         <v>2046</v>
       </c>
@@ -33627,7 +33631,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>2052</v>
       </c>
@@ -33657,7 +33661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>2054</v>
       </c>
@@ -33689,7 +33693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>2057</v>
       </c>
@@ -33721,7 +33725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>2060</v>
       </c>
@@ -33765,7 +33769,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>2066</v>
       </c>
@@ -33801,7 +33805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
         <v>2070</v>
       </c>
@@ -33833,7 +33837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
         <v>2073</v>
       </c>

--- a/std/antibiotics.xlsx
+++ b/std/antibiotics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msfintl-my.sharepoint.com/personal/msfe-sy-pharma-assist_barcelona_msf_org/Documents/Abdullah/18-Automation/09-AB_consumption_analysis/std/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullahalmohamad/Desktop/2023-data/std/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{C6B59B89-C610-8943-91B3-A78FA9783DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F02F5A1-FF86-4ABB-A0FC-1F5D024659F9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1646C903-185E-0A48-9120-1A5B450CA316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSF_code" sheetId="5" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">AMR!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MSF_code!$A$1:$I$139</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PHC!$A$1:$R$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PHC!$A$1:$R$44</definedName>
     <definedName name="dddvals">OFFSET(#REF!,0,0,COUNT(#REF!))</definedName>
     <definedName name="drugnames">OFFSET(#REF!,0,0,COUNT(#REF!))</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5966" uniqueCount="2595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5975" uniqueCount="2595">
   <si>
     <t>ab</t>
   </si>
@@ -8360,23 +8360,23 @@
   <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="32.453125" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>2491</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>2492</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>2492</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>2492</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>2493</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>2493</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>2493</v>
       </c>
@@ -12407,12 +12407,12 @@
   <autoFilter ref="A1:I139" xr:uid="{F8C41F3A-9612-4F01-ACC6-4DA9F57DD2FD}">
     <filterColumn colId="2">
       <filters>
-        <filter val="BENZATHINE BENZYLPENICILLIN , 2.4 M IU, powder, vial"/>
-        <filter val="BENZATHINE BENZYLPENICILLIN, 1.2 M IU, powder, vial"/>
-        <filter val="BENZATHINE BENZYLPENICILLIN, 1.2 M IU, powder, vial+ solvent"/>
-        <filter val="BENZATHINE BENZYLPENICILLIN, 2.4 M IU, powder, vial+ solvent"/>
-        <filter val="BENZYLPENICILLIN (peni G, crystal peni), 1 MIU, powder,vial"/>
-        <filter val="BENZYLPENICILLIN (peni G, crystal peni), 5 MIU, powder,vial"/>
+        <filter val="CLOXACILLIN sodium, 125mg/5ml, powder oral susp. 100 ml bt."/>
+        <filter val="CLOXACILLIN sodium, 500 mg, tab."/>
+        <filter val="CLOXACILLIN sodium, eq. 250 mg base, caps."/>
+        <filter val="CLOXACILLIN sodium, eq. 500 mg base,  powder, vial"/>
+        <filter val="CLOXACILLIN sodium, eq. 500 mg base,  powder, vial IV"/>
+        <filter val="CLOXACILLIN sodium, eq. 500 mg base, caps."/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I139">
@@ -12426,30 +12426,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA51841-03F0-47E2-8829-0B7F66C12DE2}">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="180" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6.36328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="4.1796875" style="5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6328125" style="5" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.6328125" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="34.453125" style="5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="26.36328125" style="5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" style="5" customWidth="1"/>
-    <col min="12" max="13" width="8.6328125" style="5" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.6328125" style="5"/>
+    <col min="1" max="1" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="34.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" style="5" customWidth="1"/>
+    <col min="11" max="13" width="8.6640625" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="17" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="17" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>2206</v>
       </c>
@@ -12505,7 +12504,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>2253</v>
       </c>
@@ -12562,7 +12561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>2255</v>
       </c>
@@ -12619,7 +12618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>2289</v>
       </c>
@@ -12675,7 +12674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>2303</v>
       </c>
@@ -12732,7 +12731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>2311</v>
       </c>
@@ -12789,7 +12788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>2313</v>
       </c>
@@ -12846,7 +12845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>2361</v>
       </c>
@@ -12903,7 +12902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>2408</v>
       </c>
@@ -12960,7 +12959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>2537</v>
       </c>
@@ -13017,7 +13016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>2540</v>
       </c>
@@ -13074,7 +13073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>2275</v>
       </c>
@@ -13131,7 +13130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>2223</v>
       </c>
@@ -13187,7 +13186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>2227</v>
       </c>
@@ -13243,7 +13242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>2231</v>
       </c>
@@ -13300,7 +13299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>2237</v>
       </c>
@@ -13357,7 +13356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>2239</v>
       </c>
@@ -13413,7 +13412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>2497</v>
       </c>
@@ -13469,7 +13468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>2251</v>
       </c>
@@ -13526,7 +13525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>2265</v>
       </c>
@@ -13583,7 +13582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>2261</v>
       </c>
@@ -13639,7 +13638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>2267</v>
       </c>
@@ -13696,7 +13695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>2295</v>
       </c>
@@ -13752,7 +13751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>2297</v>
       </c>
@@ -13802,14 +13801,14 @@
         <v>5</v>
       </c>
       <c r="Q24" s="6">
-        <f t="shared" ref="Q24:Q30" si="3">AVERAGE(O24:P24)*D24/C24</f>
+        <f t="shared" ref="Q24:Q31" si="3">AVERAGE(O24:P24)*D24/C24</f>
         <v>8</v>
       </c>
       <c r="R24" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>2283</v>
       </c>
@@ -13866,7 +13865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>2331</v>
       </c>
@@ -13923,7 +13922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>2333</v>
       </c>
@@ -13980,7 +13979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>2357</v>
       </c>
@@ -14037,18 +14036,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>2388</v>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>2363</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2506</v>
+        <v>2364</v>
       </c>
       <c r="C29" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D29" s="1">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>22</v>
@@ -14057,16 +14056,16 @@
         <v>2141</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>2558</v>
+        <v>2552</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>2558</v>
+        <v>2566</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>2140</v>
+        <v>685</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>2142</v>
+        <v>2158</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>2584</v>
@@ -14081,144 +14080,145 @@
         <v>1</v>
       </c>
       <c r="O29" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P29" s="6">
         <v>7</v>
       </c>
       <c r="Q29" s="6">
+        <f t="shared" ref="Q29" si="4">AVERAGE(O29:P29)*D29/C29</f>
+        <v>28</v>
+      </c>
+      <c r="R29" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>2558</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>2558</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>2142</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>2584</v>
+      </c>
+      <c r="L30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="6">
+        <v>5</v>
+      </c>
+      <c r="P30" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="6">
         <f t="shared" si="3"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R30" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
         <v>2400</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>0.5</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>2141</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>2556</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>2572</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>2167</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J31" s="6" t="s">
         <v>2168</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K31" s="6" t="s">
         <v>2585</v>
       </c>
-      <c r="L30" s="6" t="b">
+      <c r="L31" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="M30" s="6" t="b">
+      <c r="M31" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N30" s="6" t="b">
+      <c r="N31" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O31" s="6">
         <v>7</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P31" s="6">
         <v>10</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q31" s="6">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="R30" s="8">
+      <c r="R31" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
         <v>2402</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <v>3</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="1">
         <v>3</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>2141</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>2561</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>2561</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>2204</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>2585</v>
-      </c>
-      <c r="L31" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" s="6">
-        <v>1</v>
-      </c>
-      <c r="P31" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>1</v>
-      </c>
-      <c r="R31" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>2509</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>2510</v>
-      </c>
-      <c r="C32" s="1">
-        <v>15</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.2</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>22</v>
@@ -14227,31 +14227,35 @@
         <v>2141</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>2574</v>
+        <v>2561</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>2544</v>
+        <v>892</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>2580</v>
+        <v>2204</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>2594</v>
+        <v>2585</v>
       </c>
       <c r="L32" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="N32" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="O32" s="6">
+        <v>1</v>
+      </c>
+      <c r="P32" s="6">
+        <v>1</v>
+      </c>
       <c r="Q32" s="6">
         <v>1</v>
       </c>
@@ -14259,15 +14263,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="C33" s="1">
-        <v>0.2</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1">
         <v>1.2</v>
@@ -14297,34 +14301,29 @@
         <v>0</v>
       </c>
       <c r="M33" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N33" s="6" t="b">
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6">
         <v>1</v>
       </c>
-      <c r="O33" s="6">
-        <v>5</v>
-      </c>
-      <c r="P33" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q33" s="6">
-        <f>AVERAGE(O33:P33)*D33/C33</f>
-        <v>35.999999999999993</v>
-      </c>
       <c r="R33" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="C34" s="1">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="D34" s="1">
         <v>1.2</v>
@@ -14354,29 +14353,34 @@
         <v>0</v>
       </c>
       <c r="M34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="N34" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
+      <c r="O34" s="6">
+        <v>5</v>
+      </c>
+      <c r="P34" s="6">
+        <v>7</v>
+      </c>
       <c r="Q34" s="6">
-        <v>1</v>
+        <f>AVERAGE(O34:P34)*D34/C34</f>
+        <v>35.999999999999993</v>
       </c>
       <c r="R34" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2516</v>
+        <v>2512</v>
       </c>
       <c r="C35" s="1">
-        <v>0.4</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1">
         <v>1.2</v>
@@ -14406,37 +14410,32 @@
         <v>0</v>
       </c>
       <c r="M35" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N35" s="6" t="b">
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6">
         <v>1</v>
       </c>
-      <c r="O35" s="6">
-        <v>5</v>
-      </c>
-      <c r="P35" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q35" s="6">
-        <f>AVERAGE(O35:P35)*D35/C35</f>
-        <v>17.999999999999996</v>
-      </c>
       <c r="R35" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>2439</v>
+        <v>2515</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="D36" s="1">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>22</v>
@@ -14445,47 +14444,52 @@
         <v>2141</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>2442</v>
+        <v>2544</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>2584</v>
+        <v>2594</v>
       </c>
       <c r="L36" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="N36" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
+      <c r="O36" s="6">
+        <v>5</v>
+      </c>
+      <c r="P36" s="6">
+        <v>7</v>
+      </c>
       <c r="Q36" s="6">
-        <v>1</v>
+        <f>AVERAGE(O36:P36)*D36/C36</f>
+        <v>17.999999999999996</v>
       </c>
       <c r="R36" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="C37" s="1">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -14515,34 +14519,29 @@
         <v>0</v>
       </c>
       <c r="M37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N37" s="6" t="b">
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6">
         <v>1</v>
       </c>
-      <c r="O37" s="6">
-        <v>5</v>
-      </c>
-      <c r="P37" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q37" s="6">
-        <f t="shared" ref="Q37:Q39" si="4">AVERAGE(O37:P37)*D37/C37</f>
-        <v>48</v>
-      </c>
       <c r="R37" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="C38" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -14584,25 +14583,25 @@
         <v>7</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <f t="shared" ref="Q38:Q40" si="5">AVERAGE(O38:P38)*D38/C38</f>
+        <v>48</v>
       </c>
       <c r="R38" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>2451</v>
+        <v>2445</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="C39" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D39" s="1">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>22</v>
@@ -14611,16 +14610,16 @@
         <v>2141</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1283</v>
+        <v>2442</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>1282</v>
+        <v>2581</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>2584</v>
@@ -14641,25 +14640,25 @@
         <v>7</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="4"/>
-        <v>12.000000000000002</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="R39" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>2523</v>
+        <v>2451</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2524</v>
+        <v>2520</v>
       </c>
       <c r="C40" s="1">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="D40" s="1">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>22</v>
@@ -14668,47 +14667,52 @@
         <v>2141</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>2555</v>
+        <v>2561</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>2569</v>
+        <v>2576</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>2543</v>
+        <v>1283</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>2579</v>
+        <v>1282</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>2594</v>
+        <v>2584</v>
       </c>
       <c r="L40" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M40" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="N40" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
+      <c r="O40" s="6">
+        <v>5</v>
+      </c>
+      <c r="P40" s="6">
+        <v>7</v>
+      </c>
       <c r="Q40" s="6">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>12.000000000000002</v>
       </c>
       <c r="R40" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="C41" s="1">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -14743,28 +14747,24 @@
       <c r="N41" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="O41" s="6">
-        <v>3</v>
-      </c>
-      <c r="P41" s="6">
-        <v>5</v>
-      </c>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
       <c r="Q41" s="6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R41" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="C42" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -14794,10 +14794,10 @@
         <v>0</v>
       </c>
       <c r="M42" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" s="6" t="b">
         <v>0</v>
-      </c>
-      <c r="N42" s="6" t="b">
-        <v>1</v>
       </c>
       <c r="O42" s="6">
         <v>3</v>
@@ -14806,46 +14806,45 @@
         <v>5</v>
       </c>
       <c r="Q42" s="6">
-        <f t="shared" ref="Q42:Q43" si="5">AVERAGE(O42:P42)*D42/C42</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R42" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
-        <v>2481</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>2527</v>
-      </c>
-      <c r="C43" s="10">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C43" s="1">
         <v>0.5</v>
       </c>
-      <c r="D43" s="10">
-        <v>2</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="10" t="s">
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>2141</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>2560</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>2484</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>2582</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>2584</v>
+      <c r="G43" s="6" t="s">
+        <v>2555</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>2569</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>2579</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>2594</v>
       </c>
       <c r="L43" s="6" t="b">
         <v>0</v>
@@ -14856,22 +14855,79 @@
       <c r="N43" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="O43" s="11">
+      <c r="O43" s="6">
+        <v>3</v>
+      </c>
+      <c r="P43" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="6">
+        <f t="shared" ref="Q43:Q44" si="6">AVERAGE(O43:P43)*D43/C43</f>
+        <v>24</v>
+      </c>
+      <c r="R43" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="10">
+        <v>2</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>2141</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>2560</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>2575</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>2582</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>2584</v>
+      </c>
+      <c r="L44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="P43" s="11">
+      <c r="O44" s="11">
         <v>1</v>
       </c>
-      <c r="Q43" s="11">
-        <f t="shared" si="5"/>
+      <c r="P44" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="11">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="R43" s="16">
+      <c r="R44" s="16">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R43" xr:uid="{5AA51841-03F0-47E2-8829-0B7F66C12DE2}"/>
+  <autoFilter ref="A1:R44" xr:uid="{5AA51841-03F0-47E2-8829-0B7F66C12DE2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14885,18 +14941,18 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2076</v>
       </c>
@@ -14913,7 +14969,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2080</v>
       </c>
@@ -14924,7 +14980,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2081</v>
       </c>
@@ -14935,7 +14991,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2545</v>
       </c>
@@ -14946,7 +15002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -14957,7 +15013,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -14965,7 +15021,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -14973,7 +15029,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -14984,7 +15040,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -14995,7 +15051,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -15006,7 +15062,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -15017,7 +15073,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -15025,7 +15081,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -15033,7 +15089,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2093</v>
       </c>
@@ -15041,7 +15097,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2547</v>
       </c>
@@ -15052,7 +15108,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -15063,7 +15119,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -15074,7 +15130,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -15085,7 +15141,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -15096,7 +15152,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -15107,7 +15163,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -15118,7 +15174,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2104</v>
       </c>
@@ -15129,7 +15185,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -15140,7 +15196,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -15148,7 +15204,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>20</v>
       </c>
@@ -15159,7 +15215,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -15170,7 +15226,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>20</v>
       </c>
@@ -15181,7 +15237,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>20</v>
       </c>
@@ -15192,7 +15248,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2115</v>
       </c>
@@ -15203,7 +15259,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>20</v>
       </c>
@@ -15214,7 +15270,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>20</v>
       </c>
@@ -15225,7 +15281,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>20</v>
       </c>
@@ -15236,7 +15292,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2119</v>
       </c>
@@ -15247,7 +15303,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>20</v>
       </c>
@@ -15258,7 +15314,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>20</v>
       </c>
@@ -15269,7 +15325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2122</v>
       </c>
@@ -15280,7 +15336,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>20</v>
       </c>
@@ -15291,7 +15347,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>20</v>
       </c>
@@ -15302,7 +15358,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2125</v>
       </c>
@@ -15313,7 +15369,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2126</v>
       </c>
@@ -15324,7 +15380,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>20</v>
       </c>
@@ -15335,7 +15391,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>20</v>
       </c>
@@ -15346,7 +15402,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>20</v>
       </c>
@@ -15357,7 +15413,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>20</v>
       </c>
@@ -15368,7 +15424,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>20</v>
       </c>
@@ -15379,7 +15435,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>20</v>
       </c>
@@ -15390,7 +15446,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2135</v>
       </c>
@@ -15401,7 +15457,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>20</v>
       </c>
@@ -15409,7 +15465,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
         <v>2079</v>
       </c>
@@ -15420,7 +15476,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
         <v>2140</v>
       </c>
@@ -15431,7 +15487,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
         <v>2143</v>
       </c>
@@ -15442,7 +15498,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
         <v>1964</v>
       </c>
@@ -15453,7 +15509,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
         <v>2147</v>
       </c>
@@ -15464,7 +15520,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
         <v>2147</v>
       </c>
@@ -15475,7 +15531,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
         <v>2150</v>
       </c>
@@ -15486,7 +15542,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
         <v>2150</v>
       </c>
@@ -15497,7 +15553,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
         <v>50</v>
       </c>
@@ -15508,7 +15564,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
         <v>2154</v>
       </c>
@@ -15519,7 +15575,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
         <v>1424</v>
       </c>
@@ -15530,7 +15586,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
         <v>179</v>
       </c>
@@ -15541,7 +15597,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
         <v>1507</v>
       </c>
@@ -15552,7 +15608,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
         <v>2156</v>
       </c>
@@ -15563,7 +15619,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
         <v>685</v>
       </c>
@@ -15574,7 +15630,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
         <v>685</v>
       </c>
@@ -15585,7 +15641,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
         <v>58</v>
       </c>
@@ -15596,7 +15652,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
         <v>58</v>
       </c>
@@ -15607,7 +15663,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
         <v>1446</v>
       </c>
@@ -15618,7 +15674,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
         <v>268</v>
       </c>
@@ -15629,7 +15685,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
         <v>301</v>
       </c>
@@ -15640,7 +15696,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
         <v>418</v>
       </c>
@@ -15651,7 +15707,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
         <v>512</v>
       </c>
@@ -15662,7 +15718,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
         <v>565</v>
       </c>
@@ -15673,7 +15729,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
         <v>372</v>
       </c>
@@ -15684,7 +15740,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
         <v>334</v>
       </c>
@@ -15695,7 +15751,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
         <v>1127</v>
       </c>
@@ -15706,7 +15762,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
         <v>804</v>
       </c>
@@ -15717,7 +15773,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E78" t="s">
         <v>980</v>
       </c>
@@ -15728,7 +15784,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
         <v>2164</v>
       </c>
@@ -15739,7 +15795,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
         <v>2164</v>
       </c>
@@ -15750,7 +15806,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
         <v>2167</v>
       </c>
@@ -15761,7 +15817,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
         <v>2167</v>
       </c>
@@ -15772,7 +15828,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E83" t="s">
         <v>644</v>
       </c>
@@ -15783,7 +15839,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
         <v>2171</v>
       </c>
@@ -15794,7 +15850,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
         <v>2173</v>
       </c>
@@ -15805,7 +15861,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
         <v>2173</v>
       </c>
@@ -15816,7 +15872,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
         <v>1501</v>
       </c>
@@ -15827,7 +15883,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
         <v>2176</v>
       </c>
@@ -15838,7 +15894,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
         <v>2178</v>
       </c>
@@ -15849,7 +15905,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
         <v>2180</v>
       </c>
@@ -15860,7 +15916,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
         <v>2182</v>
       </c>
@@ -15871,7 +15927,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E92" t="s">
         <v>2184</v>
       </c>
@@ -15882,7 +15938,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E93" t="s">
         <v>2185</v>
       </c>
@@ -15893,7 +15949,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="94" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E94" t="s">
         <v>2187</v>
       </c>
@@ -15904,7 +15960,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="95" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E95" t="s">
         <v>2187</v>
       </c>
@@ -15915,7 +15971,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E96" t="s">
         <v>2190</v>
       </c>
@@ -15926,7 +15982,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="97" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E97" t="s">
         <v>2192</v>
       </c>
@@ -15937,7 +15993,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="98" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E98" t="s">
         <v>2194</v>
       </c>
@@ -15948,7 +16004,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="99" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E99" t="s">
         <v>1687</v>
       </c>
@@ -15959,7 +16015,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="100" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E100" t="s">
         <v>2197</v>
       </c>
@@ -15970,7 +16026,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="101" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E101" t="s">
         <v>1881</v>
       </c>
@@ -15981,7 +16037,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="102" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E102" t="s">
         <v>2199</v>
       </c>
@@ -15992,7 +16048,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="103" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E103" t="s">
         <v>2201</v>
       </c>
@@ -16003,7 +16059,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="104" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E104" t="s">
         <v>2203</v>
       </c>
@@ -16014,7 +16070,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="105" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E105" t="s">
         <v>1283</v>
       </c>
@@ -16025,7 +16081,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="106" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E106" t="s">
         <v>892</v>
       </c>
@@ -16036,7 +16092,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="107" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E107" t="s">
         <v>1677</v>
       </c>
@@ -16047,7 +16103,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="108" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E108" t="s">
         <v>1088</v>
       </c>
@@ -16071,25 +16127,25 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="98.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="98.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16133,7 +16189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -16173,7 +16229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -16205,7 +16261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -16237,7 +16293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -16277,7 +16333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -16317,7 +16373,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -16347,7 +16403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -16391,7 +16447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -16435,7 +16491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -16467,7 +16523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
@@ -16511,7 +16567,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -16541,7 +16597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -16585,7 +16641,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>83</v>
       </c>
@@ -16625,7 +16681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
@@ -16657,7 +16713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
@@ -16697,7 +16753,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>98</v>
       </c>
@@ -16729,7 +16785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>101</v>
       </c>
@@ -16761,7 +16817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>104</v>
       </c>
@@ -16797,7 +16853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>108</v>
       </c>
@@ -16833,7 +16889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
@@ -16865,7 +16921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>115</v>
       </c>
@@ -16897,7 +16953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>118</v>
       </c>
@@ -16929,7 +16985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>121</v>
       </c>
@@ -16961,7 +17017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>125</v>
       </c>
@@ -17001,7 +17057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>130</v>
       </c>
@@ -17045,7 +17101,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>138</v>
       </c>
@@ -17079,7 +17135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>142</v>
       </c>
@@ -17119,7 +17175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>147</v>
       </c>
@@ -17159,7 +17215,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>155</v>
       </c>
@@ -17189,7 +17245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>157</v>
       </c>
@@ -17219,7 +17275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
@@ -17259,7 +17315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>163</v>
       </c>
@@ -17291,7 +17347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>168</v>
       </c>
@@ -17327,7 +17383,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>173</v>
       </c>
@@ -17363,7 +17419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>177</v>
       </c>
@@ -17401,7 +17457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>181</v>
       </c>
@@ -17441,7 +17497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>185</v>
       </c>
@@ -17481,7 +17537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>190</v>
       </c>
@@ -17513,7 +17569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>195</v>
       </c>
@@ -17549,7 +17605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>200</v>
       </c>
@@ -17581,7 +17637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>204</v>
       </c>
@@ -17621,7 +17677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>211</v>
       </c>
@@ -17653,7 +17709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>215</v>
       </c>
@@ -17685,7 +17741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>219</v>
       </c>
@@ -17723,7 +17779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>222</v>
       </c>
@@ -17763,7 +17819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>226</v>
       </c>
@@ -17803,7 +17859,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>232</v>
       </c>
@@ -17843,7 +17899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>236</v>
       </c>
@@ -17879,7 +17935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>240</v>
       </c>
@@ -17919,7 +17975,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>246</v>
       </c>
@@ -17955,7 +18011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>252</v>
       </c>
@@ -17995,7 +18051,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>260</v>
       </c>
@@ -18035,7 +18091,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>266</v>
       </c>
@@ -18075,7 +18131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>271</v>
       </c>
@@ -18115,7 +18171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>276</v>
       </c>
@@ -18155,7 +18211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>281</v>
       </c>
@@ -18195,7 +18251,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>287</v>
       </c>
@@ -18235,7 +18291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>291</v>
       </c>
@@ -18275,7 +18331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>295</v>
       </c>
@@ -18315,7 +18371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>299</v>
       </c>
@@ -18355,7 +18411,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>305</v>
       </c>
@@ -18391,7 +18447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>309</v>
       </c>
@@ -18427,7 +18483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>314</v>
       </c>
@@ -18459,7 +18515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>317</v>
       </c>
@@ -18499,7 +18555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>323</v>
       </c>
@@ -18539,7 +18595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>328</v>
       </c>
@@ -18571,7 +18627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>331</v>
       </c>
@@ -18611,7 +18667,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>339</v>
       </c>
@@ -18645,7 +18701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>342</v>
       </c>
@@ -18677,7 +18733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>345</v>
       </c>
@@ -18707,7 +18763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>347</v>
       </c>
@@ -18739,7 +18795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>349</v>
       </c>
@@ -18769,7 +18825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>351</v>
       </c>
@@ -18809,7 +18865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>355</v>
       </c>
@@ -18841,7 +18897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>358</v>
       </c>
@@ -18873,7 +18929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>362</v>
       </c>
@@ -18905,7 +18961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>366</v>
       </c>
@@ -18937,7 +18993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>370</v>
       </c>
@@ -18977,7 +19033,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>376</v>
       </c>
@@ -19011,7 +19067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>379</v>
       </c>
@@ -19051,7 +19107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>383</v>
       </c>
@@ -19091,7 +19147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>387</v>
       </c>
@@ -19127,7 +19183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>391</v>
       </c>
@@ -19167,7 +19223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>395</v>
       </c>
@@ -19207,7 +19263,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>400</v>
       </c>
@@ -19247,7 +19303,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>406</v>
       </c>
@@ -19285,7 +19341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>409</v>
       </c>
@@ -19325,7 +19381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>413</v>
       </c>
@@ -19357,7 +19413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>416</v>
       </c>
@@ -19397,7 +19453,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>422</v>
       </c>
@@ -19429,7 +19485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>426</v>
       </c>
@@ -19461,7 +19517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>428</v>
       </c>
@@ -19501,7 +19557,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>434</v>
       </c>
@@ -19545,7 +19601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>438</v>
       </c>
@@ -19577,7 +19633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>441</v>
       </c>
@@ -19609,7 +19665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>444</v>
       </c>
@@ -19649,7 +19705,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>450</v>
       </c>
@@ -19679,7 +19735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>453</v>
       </c>
@@ -19715,7 +19771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>457</v>
       </c>
@@ -19747,7 +19803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>460</v>
       </c>
@@ -19787,7 +19843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>464</v>
       </c>
@@ -19827,7 +19883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>469</v>
       </c>
@@ -19867,7 +19923,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>475</v>
       </c>
@@ -19899,7 +19955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>478</v>
       </c>
@@ -19929,7 +19985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>481</v>
       </c>
@@ -19969,7 +20025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>486</v>
       </c>
@@ -20001,7 +20057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>489</v>
       </c>
@@ -20041,7 +20097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>493</v>
       </c>
@@ -20081,7 +20137,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>499</v>
       </c>
@@ -20113,7 +20169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>502</v>
       </c>
@@ -20149,7 +20205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>508</v>
       </c>
@@ -20179,7 +20235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>510</v>
       </c>
@@ -20219,7 +20275,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>516</v>
       </c>
@@ -20251,7 +20307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>520</v>
       </c>
@@ -20291,7 +20347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>524</v>
       </c>
@@ -20327,7 +20383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>528</v>
       </c>
@@ -20359,7 +20415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>531</v>
       </c>
@@ -20399,7 +20455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>535</v>
       </c>
@@ -20439,7 +20495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>540</v>
       </c>
@@ -20471,7 +20527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>543</v>
       </c>
@@ -20511,7 +20567,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>549</v>
       </c>
@@ -20543,7 +20599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>551</v>
       </c>
@@ -20575,7 +20631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>554</v>
       </c>
@@ -20615,7 +20671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>558</v>
       </c>
@@ -20655,7 +20711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>563</v>
       </c>
@@ -20695,7 +20751,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>569</v>
       </c>
@@ -20733,7 +20789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>572</v>
       </c>
@@ -20777,7 +20833,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>578</v>
       </c>
@@ -20809,7 +20865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>582</v>
       </c>
@@ -20843,7 +20899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>585</v>
       </c>
@@ -20875,7 +20931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>588</v>
       </c>
@@ -20919,7 +20975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>593</v>
       </c>
@@ -20951,7 +21007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>597</v>
       </c>
@@ -20995,7 +21051,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>604</v>
       </c>
@@ -21035,7 +21091,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>609</v>
       </c>
@@ -21067,7 +21123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>612</v>
       </c>
@@ -21103,7 +21159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>619</v>
       </c>
@@ -21143,7 +21199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>626</v>
       </c>
@@ -21187,7 +21243,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>633</v>
       </c>
@@ -21221,7 +21277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>636</v>
       </c>
@@ -21255,7 +21311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>639</v>
       </c>
@@ -21289,7 +21345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>642</v>
       </c>
@@ -21333,7 +21389,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>648</v>
       </c>
@@ -21365,7 +21421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>651</v>
       </c>
@@ -21397,7 +21453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>654</v>
       </c>
@@ -21441,7 +21497,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>661</v>
       </c>
@@ -21481,7 +21537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>666</v>
       </c>
@@ -21517,7 +21573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>670</v>
       </c>
@@ -21557,7 +21613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>674</v>
       </c>
@@ -21597,7 +21653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>678</v>
       </c>
@@ -21629,7 +21685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>683</v>
       </c>
@@ -21673,7 +21729,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>690</v>
       </c>
@@ -21717,7 +21773,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>698</v>
       </c>
@@ -21747,7 +21803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>700</v>
       </c>
@@ -21787,7 +21843,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>706</v>
       </c>
@@ -21827,7 +21883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>712</v>
       </c>
@@ -21859,7 +21915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>715</v>
       </c>
@@ -21899,7 +21955,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>720</v>
       </c>
@@ -21939,7 +21995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>725</v>
       </c>
@@ -21979,7 +22035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>729</v>
       </c>
@@ -22019,7 +22075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>735</v>
       </c>
@@ -22059,7 +22115,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>740</v>
       </c>
@@ -22099,7 +22155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>744</v>
       </c>
@@ -22143,7 +22199,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>750</v>
       </c>
@@ -22175,7 +22231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>753</v>
       </c>
@@ -22215,7 +22271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>757</v>
       </c>
@@ -22255,7 +22311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>762</v>
       </c>
@@ -22299,7 +22355,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>768</v>
       </c>
@@ -22335,7 +22391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>774</v>
       </c>
@@ -22375,7 +22431,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>780</v>
       </c>
@@ -22407,7 +22463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>783</v>
       </c>
@@ -22439,7 +22495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>788</v>
       </c>
@@ -22469,7 +22525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>790</v>
       </c>
@@ -22513,7 +22569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>794</v>
       </c>
@@ -22545,7 +22601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>797</v>
       </c>
@@ -22581,7 +22637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>802</v>
       </c>
@@ -22621,7 +22677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>807</v>
       </c>
@@ -22665,7 +22721,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>813</v>
       </c>
@@ -22709,7 +22765,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>819</v>
       </c>
@@ -22745,7 +22801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>823</v>
       </c>
@@ -22785,7 +22841,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>830</v>
       </c>
@@ -22817,7 +22873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>833</v>
       </c>
@@ -22845,7 +22901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>835</v>
       </c>
@@ -22885,7 +22941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>839</v>
       </c>
@@ -22921,7 +22977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>843</v>
       </c>
@@ -22953,7 +23009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>846</v>
       </c>
@@ -22985,7 +23041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>849</v>
       </c>
@@ -23029,7 +23085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>854</v>
       </c>
@@ -23065,7 +23121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>858</v>
       </c>
@@ -23097,7 +23153,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>862</v>
       </c>
@@ -23141,7 +23197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>867</v>
       </c>
@@ -23185,7 +23241,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>874</v>
       </c>
@@ -23221,7 +23277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>879</v>
       </c>
@@ -23261,7 +23317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>883</v>
       </c>
@@ -23301,7 +23357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>887</v>
       </c>
@@ -23333,7 +23389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>890</v>
       </c>
@@ -23377,7 +23433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>895</v>
       </c>
@@ -23409,7 +23465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>898</v>
       </c>
@@ -23441,7 +23497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>903</v>
       </c>
@@ -23481,7 +23537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>908</v>
       </c>
@@ -23513,7 +23569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>912</v>
       </c>
@@ -23557,7 +23613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>918</v>
       </c>
@@ -23589,7 +23645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>921</v>
       </c>
@@ -23625,7 +23681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>925</v>
       </c>
@@ -23669,7 +23725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>930</v>
       </c>
@@ -23709,7 +23765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>934</v>
       </c>
@@ -23749,7 +23805,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>940</v>
       </c>
@@ -23779,7 +23835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>943</v>
       </c>
@@ -23811,7 +23867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>946</v>
       </c>
@@ -23851,7 +23907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>951</v>
       </c>
@@ -23887,7 +23943,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>956</v>
       </c>
@@ -23919,7 +23975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>959</v>
       </c>
@@ -23955,7 +24011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>963</v>
       </c>
@@ -23995,7 +24051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>967</v>
       </c>
@@ -24027,7 +24083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>970</v>
       </c>
@@ -24057,7 +24113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>974</v>
       </c>
@@ -24089,7 +24145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>978</v>
       </c>
@@ -24129,7 +24185,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>984</v>
       </c>
@@ -24159,7 +24215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>986</v>
       </c>
@@ -24189,7 +24245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>989</v>
       </c>
@@ -24229,7 +24285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>994</v>
       </c>
@@ -24269,7 +24325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>998</v>
       </c>
@@ -24305,7 +24361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>1003</v>
       </c>
@@ -24349,7 +24405,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>1010</v>
       </c>
@@ -24383,7 +24439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>1013</v>
       </c>
@@ -24427,7 +24483,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>1019</v>
       </c>
@@ -24467,7 +24523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>1023</v>
       </c>
@@ -24511,7 +24567,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>1029</v>
       </c>
@@ -24541,7 +24597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>1032</v>
       </c>
@@ -24571,7 +24627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>1034</v>
       </c>
@@ -24611,7 +24667,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>1041</v>
       </c>
@@ -24641,7 +24697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>1044</v>
       </c>
@@ -24673,7 +24729,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>1048</v>
       </c>
@@ -24713,7 +24769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>1052</v>
       </c>
@@ -24753,7 +24809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>1057</v>
       </c>
@@ -24785,7 +24841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>1061</v>
       </c>
@@ -24817,7 +24873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>1064</v>
       </c>
@@ -24861,7 +24917,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>1070</v>
       </c>
@@ -24895,7 +24951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>1073</v>
       </c>
@@ -24927,7 +24983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>1077</v>
       </c>
@@ -24957,7 +25013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>1080</v>
       </c>
@@ -25001,7 +25057,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>1086</v>
       </c>
@@ -25045,7 +25101,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>1092</v>
       </c>
@@ -25075,7 +25131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>1094</v>
       </c>
@@ -25115,7 +25171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>1099</v>
       </c>
@@ -25155,7 +25211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>1104</v>
       </c>
@@ -25199,7 +25255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>1108</v>
       </c>
@@ -25239,7 +25295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>1112</v>
       </c>
@@ -25269,7 +25325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>1115</v>
       </c>
@@ -25301,7 +25357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>1118</v>
       </c>
@@ -25341,7 +25397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>1123</v>
       </c>
@@ -25373,7 +25429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>1125</v>
       </c>
@@ -25413,7 +25469,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>1131</v>
       </c>
@@ -25443,7 +25499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>1133</v>
       </c>
@@ -25481,7 +25537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>1137</v>
       </c>
@@ -25513,7 +25569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>1140</v>
       </c>
@@ -25553,7 +25609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>1144</v>
       </c>
@@ -25597,7 +25653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>1148</v>
       </c>
@@ -25637,7 +25693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>1152</v>
       </c>
@@ -25677,7 +25733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>1157</v>
       </c>
@@ -25709,7 +25765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>1160</v>
       </c>
@@ -25741,7 +25797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>1163</v>
       </c>
@@ -25785,7 +25841,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>1169</v>
       </c>
@@ -25825,7 +25881,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>1175</v>
       </c>
@@ -25855,7 +25911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>1177</v>
       </c>
@@ -25895,7 +25951,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>1183</v>
       </c>
@@ -25939,7 +25995,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>1189</v>
       </c>
@@ -25971,7 +26027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>1193</v>
       </c>
@@ -26015,7 +26071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>1197</v>
       </c>
@@ -26047,7 +26103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>1200</v>
       </c>
@@ -26091,7 +26147,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>1206</v>
       </c>
@@ -26131,7 +26187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>1210</v>
       </c>
@@ -26163,7 +26219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>1213</v>
       </c>
@@ -26199,7 +26255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>1217</v>
       </c>
@@ -26243,7 +26299,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>1223</v>
       </c>
@@ -26275,7 +26331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>1228</v>
       </c>
@@ -26307,7 +26363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>1231</v>
       </c>
@@ -26339,7 +26395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>1235</v>
       </c>
@@ -26375,7 +26431,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>1240</v>
       </c>
@@ -26407,7 +26463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>1243</v>
       </c>
@@ -26447,7 +26503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>1248</v>
       </c>
@@ -26479,7 +26535,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>1252</v>
       </c>
@@ -26515,7 +26571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>1256</v>
       </c>
@@ -26555,7 +26611,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>1261</v>
       </c>
@@ -26599,7 +26655,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>1267</v>
       </c>
@@ -26631,7 +26687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>1270</v>
       </c>
@@ -26663,7 +26719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>1273</v>
       </c>
@@ -26703,7 +26759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>1277</v>
       </c>
@@ -26739,7 +26795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>1281</v>
       </c>
@@ -26779,7 +26835,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>1287</v>
       </c>
@@ -26811,7 +26867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>1290</v>
       </c>
@@ -26851,7 +26907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>1294</v>
       </c>
@@ -26891,7 +26947,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>1300</v>
       </c>
@@ -26925,7 +26981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>1303</v>
       </c>
@@ -26959,7 +27015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>1306</v>
       </c>
@@ -26991,7 +27047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>1309</v>
       </c>
@@ -27023,7 +27079,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>1314</v>
       </c>
@@ -27059,7 +27115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>1319</v>
       </c>
@@ -27103,7 +27159,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>1325</v>
       </c>
@@ -27137,7 +27193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>1328</v>
       </c>
@@ -27177,7 +27233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>1332</v>
       </c>
@@ -27217,7 +27273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>1336</v>
       </c>
@@ -27249,7 +27305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>1339</v>
       </c>
@@ -27281,7 +27337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>1342</v>
       </c>
@@ -27317,7 +27373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>1347</v>
       </c>
@@ -27347,7 +27403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>1349</v>
       </c>
@@ -27391,7 +27447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>1353</v>
       </c>
@@ -27427,7 +27483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>1357</v>
       </c>
@@ -27471,7 +27527,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>1363</v>
       </c>
@@ -27511,7 +27567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>1367</v>
       </c>
@@ -27555,7 +27611,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>1372</v>
       </c>
@@ -27583,7 +27639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>1376</v>
       </c>
@@ -27615,7 +27671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>1378</v>
       </c>
@@ -27647,7 +27703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>1382</v>
       </c>
@@ -27683,7 +27739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>1386</v>
       </c>
@@ -27723,7 +27779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>1390</v>
       </c>
@@ -27767,7 +27823,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>1396</v>
       </c>
@@ -27807,7 +27863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>1400</v>
       </c>
@@ -27837,7 +27893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>1402</v>
       </c>
@@ -27867,7 +27923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>1404</v>
       </c>
@@ -27903,7 +27959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>1408</v>
       </c>
@@ -27935,7 +27991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>1411</v>
       </c>
@@ -27967,7 +28023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>1414</v>
       </c>
@@ -27999,7 +28055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>1417</v>
       </c>
@@ -28039,7 +28095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>1422</v>
       </c>
@@ -28079,7 +28135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>1427</v>
       </c>
@@ -28111,7 +28167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>1431</v>
       </c>
@@ -28151,7 +28207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>1436</v>
       </c>
@@ -28191,7 +28247,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>1442</v>
       </c>
@@ -28221,7 +28277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>1444</v>
       </c>
@@ -28261,7 +28317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>1449</v>
       </c>
@@ -28293,7 +28349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>1452</v>
       </c>
@@ -28325,7 +28381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>1455</v>
       </c>
@@ -28365,7 +28421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>1459</v>
       </c>
@@ -28405,7 +28461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>1463</v>
       </c>
@@ -28445,7 +28501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>1467</v>
       </c>
@@ -28477,7 +28533,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>1472</v>
       </c>
@@ -28521,7 +28577,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>1478</v>
       </c>
@@ -28551,7 +28607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>1480</v>
       </c>
@@ -28595,7 +28651,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>1486</v>
       </c>
@@ -28627,7 +28683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>1489</v>
       </c>
@@ -28659,7 +28715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>1492</v>
       </c>
@@ -28695,7 +28751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>1496</v>
       </c>
@@ -28727,7 +28783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>1499</v>
       </c>
@@ -28767,7 +28823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>1505</v>
       </c>
@@ -28807,7 +28863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>1509</v>
       </c>
@@ -28847,7 +28903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>1513</v>
       </c>
@@ -28879,7 +28935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>1516</v>
       </c>
@@ -28919,7 +28975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>1521</v>
       </c>
@@ -28959,7 +29015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>1525</v>
       </c>
@@ -28999,7 +29055,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>1531</v>
       </c>
@@ -29039,7 +29095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>1535</v>
       </c>
@@ -29071,7 +29127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>1538</v>
       </c>
@@ -29103,7 +29159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>1541</v>
       </c>
@@ -29135,7 +29191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>1544</v>
       </c>
@@ -29171,7 +29227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>1551</v>
       </c>
@@ -29201,7 +29257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>1554</v>
       </c>
@@ -29239,7 +29295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>1559</v>
       </c>
@@ -29279,7 +29335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>1563</v>
       </c>
@@ -29311,7 +29367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>1566</v>
       </c>
@@ -29351,7 +29407,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>1572</v>
       </c>
@@ -29395,7 +29451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>1577</v>
       </c>
@@ -29431,7 +29487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>1580</v>
       </c>
@@ -29465,7 +29521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>1584</v>
       </c>
@@ -29499,7 +29555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>1587</v>
       </c>
@@ -29533,7 +29589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>1590</v>
       </c>
@@ -29573,7 +29629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>1594</v>
       </c>
@@ -29613,7 +29669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>1599</v>
       </c>
@@ -29653,7 +29709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>1604</v>
       </c>
@@ -29685,7 +29741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>1607</v>
       </c>
@@ -29717,7 +29773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>1610</v>
       </c>
@@ -29757,7 +29813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>1614</v>
       </c>
@@ -29797,7 +29853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>1618</v>
       </c>
@@ -29837,7 +29893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>1622</v>
       </c>
@@ -29875,7 +29931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>1627</v>
       </c>
@@ -29915,7 +29971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>1631</v>
       </c>
@@ -29947,7 +30003,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>1635</v>
       </c>
@@ -29979,7 +30035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>1638</v>
       </c>
@@ -30019,7 +30075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>1642</v>
       </c>
@@ -30051,7 +30107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>1645</v>
       </c>
@@ -30087,7 +30143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>1649</v>
       </c>
@@ -30121,7 +30177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>1653</v>
       </c>
@@ -30161,7 +30217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>1658</v>
       </c>
@@ -30197,7 +30253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>1662</v>
       </c>
@@ -30241,7 +30297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>1666</v>
       </c>
@@ -30273,7 +30329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>1670</v>
       </c>
@@ -30313,7 +30369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>1675</v>
       </c>
@@ -30353,7 +30409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>1680</v>
       </c>
@@ -30393,7 +30449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>1685</v>
       </c>
@@ -30427,7 +30483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>1688</v>
       </c>
@@ -30465,7 +30521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>1693</v>
       </c>
@@ -30505,7 +30561,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>1699</v>
       </c>
@@ -30535,7 +30591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>1702</v>
       </c>
@@ -30569,7 +30625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>1705</v>
       </c>
@@ -30609,7 +30665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>1710</v>
       </c>
@@ -30649,7 +30705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>1714</v>
       </c>
@@ -30681,7 +30737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>1718</v>
       </c>
@@ -30713,7 +30769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>1721</v>
       </c>
@@ -30753,7 +30809,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>1727</v>
       </c>
@@ -30789,7 +30845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>1732</v>
       </c>
@@ -30825,7 +30881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>1736</v>
       </c>
@@ -30865,7 +30921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>1741</v>
       </c>
@@ -30905,7 +30961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>1746</v>
       </c>
@@ -30939,7 +30995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>1749</v>
       </c>
@@ -30983,7 +31039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>1754</v>
       </c>
@@ -31027,7 +31083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>1758</v>
       </c>
@@ -31067,7 +31123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>1762</v>
       </c>
@@ -31107,7 +31163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>1766</v>
       </c>
@@ -31147,7 +31203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>1770</v>
       </c>
@@ -31181,7 +31237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>1773</v>
       </c>
@@ -31213,7 +31269,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>1776</v>
       </c>
@@ -31253,7 +31309,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>1782</v>
       </c>
@@ -31293,7 +31349,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>1788</v>
       </c>
@@ -31333,7 +31389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>1792</v>
       </c>
@@ -31369,7 +31425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>1796</v>
       </c>
@@ -31409,7 +31465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>1800</v>
       </c>
@@ -31443,7 +31499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>1804</v>
       </c>
@@ -31487,7 +31543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>1808</v>
       </c>
@@ -31521,7 +31577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>1812</v>
       </c>
@@ -31557,7 +31613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>1816</v>
       </c>
@@ -31597,7 +31653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>1820</v>
       </c>
@@ -31637,7 +31693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>1824</v>
       </c>
@@ -31677,7 +31733,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>1829</v>
       </c>
@@ -31709,7 +31765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>1832</v>
       </c>
@@ -31745,7 +31801,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>1837</v>
       </c>
@@ -31785,7 +31841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>1841</v>
       </c>
@@ -31817,7 +31873,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>1844</v>
       </c>
@@ -31849,7 +31905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>1848</v>
       </c>
@@ -31881,7 +31937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>1851</v>
       </c>
@@ -31921,7 +31977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>1855</v>
       </c>
@@ -31953,7 +32009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>1858</v>
       </c>
@@ -31993,7 +32049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>1862</v>
       </c>
@@ -32025,7 +32081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>1865</v>
       </c>
@@ -32061,7 +32117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>1870</v>
       </c>
@@ -32093,7 +32149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>1874</v>
       </c>
@@ -32137,7 +32193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>1879</v>
       </c>
@@ -32177,7 +32233,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>1885</v>
       </c>
@@ -32207,7 +32263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>1887</v>
       </c>
@@ -32243,7 +32299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>1892</v>
       </c>
@@ -32283,7 +32339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>1897</v>
       </c>
@@ -32323,7 +32379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>1902</v>
       </c>
@@ -32363,7 +32419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>1907</v>
       </c>
@@ -32403,7 +32459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>1913</v>
       </c>
@@ -32435,7 +32491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>1917</v>
       </c>
@@ -32471,7 +32527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>1921</v>
       </c>
@@ -32515,7 +32571,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>1927</v>
       </c>
@@ -32551,7 +32607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>1930</v>
       </c>
@@ -32583,7 +32639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>1933</v>
       </c>
@@ -32615,7 +32671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>1936</v>
       </c>
@@ -32659,7 +32715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>1940</v>
       </c>
@@ -32695,7 +32751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>1944</v>
       </c>
@@ -32729,7 +32785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>1947</v>
       </c>
@@ -32761,7 +32817,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>1951</v>
       </c>
@@ -32801,7 +32857,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>1957</v>
       </c>
@@ -32841,7 +32897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>1962</v>
       </c>
@@ -32881,7 +32937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>1967</v>
       </c>
@@ -32913,7 +32969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>1971</v>
       </c>
@@ -32945,7 +33001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>1974</v>
       </c>
@@ -32977,7 +33033,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>1978</v>
       </c>
@@ -33021,7 +33077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>1983</v>
       </c>
@@ -33061,7 +33117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>1987</v>
       </c>
@@ -33093,7 +33149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>1990</v>
       </c>
@@ -33125,7 +33181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>1993</v>
       </c>
@@ -33157,7 +33213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>1996</v>
       </c>
@@ -33197,7 +33253,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>2002</v>
       </c>
@@ -33227,7 +33283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>2005</v>
       </c>
@@ -33263,7 +33319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>2009</v>
       </c>
@@ -33307,7 +33363,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>2015</v>
       </c>
@@ -33343,7 +33399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>2020</v>
       </c>
@@ -33383,7 +33439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>2024</v>
       </c>
@@ -33415,7 +33471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>2027</v>
       </c>
@@ -33459,7 +33515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>2032</v>
       </c>
@@ -33491,7 +33547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>2035</v>
       </c>
@@ -33523,7 +33579,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>2039</v>
       </c>
@@ -33555,7 +33611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>2043</v>
       </c>
@@ -33587,7 +33643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>2046</v>
       </c>
@@ -33631,7 +33687,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>2052</v>
       </c>
@@ -33661,7 +33717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>2054</v>
       </c>
@@ -33693,7 +33749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>2057</v>
       </c>
@@ -33725,7 +33781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>2060</v>
       </c>
@@ -33769,7 +33825,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>2066</v>
       </c>
@@ -33805,7 +33861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>2070</v>
       </c>
@@ -33837,7 +33893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>2073</v>
       </c>
